--- a/demo/unseen_data.xlsx
+++ b/demo/unseen_data.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -86723,6 +86723,6 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/demo/unseen_data.xlsx
+++ b/demo/unseen_data.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -647,7 +647,7 @@
         <v>0</v>
       </c>
       <c r="AD2" t="n">
-        <v>0.4361849833740253</v>
+        <v>0.1120815776900183</v>
       </c>
     </row>
     <row r="3">
@@ -779,7 +779,7 @@
         <v>0</v>
       </c>
       <c r="AD3" t="n">
-        <v>0.06658881380599072</v>
+        <v>0.03760965715769315</v>
       </c>
     </row>
     <row r="4">
@@ -911,7 +911,7 @@
         <v>0</v>
       </c>
       <c r="AD4" t="n">
-        <v>0.06682434972165785</v>
+        <v>0.05777493747756267</v>
       </c>
     </row>
     <row r="5">
@@ -1043,7 +1043,7 @@
         <v>0</v>
       </c>
       <c r="AD5" t="n">
-        <v>0.05704545454545455</v>
+        <v>0.2390656283066608</v>
       </c>
     </row>
     <row r="6">
@@ -1175,7 +1175,7 @@
         <v>0</v>
       </c>
       <c r="AD6" t="n">
-        <v>0.05704545454545455</v>
+        <v>0.3485184821783147</v>
       </c>
     </row>
     <row r="7">
@@ -1307,7 +1307,7 @@
         <v>0</v>
       </c>
       <c r="AD7" t="n">
-        <v>0.002856565656565656</v>
+        <v>0.6015010691652144</v>
       </c>
     </row>
     <row r="8">
@@ -1439,7 +1439,7 @@
         <v>0</v>
       </c>
       <c r="AD8" t="n">
-        <v>0.002545454545454546</v>
+        <v>0.2692031937464525</v>
       </c>
     </row>
     <row r="9">
@@ -1571,7 +1571,7 @@
         <v>0</v>
       </c>
       <c r="AD9" t="n">
-        <v>0.002545454545454546</v>
+        <v>0.2714698604131192</v>
       </c>
     </row>
     <row r="10">
@@ -1703,7 +1703,7 @@
         <v>0</v>
       </c>
       <c r="AD10" t="n">
-        <v>0.002545454545454546</v>
+        <v>0.2810816521627014</v>
       </c>
     </row>
     <row r="11">
@@ -1835,7 +1835,7 @@
         <v>0</v>
       </c>
       <c r="AD11" t="n">
-        <v>0.1807118304562619</v>
+        <v>0.04000788680732794</v>
       </c>
     </row>
     <row r="12">
@@ -1963,7 +1963,7 @@
         <v>0</v>
       </c>
       <c r="AD12" t="n">
-        <v>0</v>
+        <v>0.008830006292099443</v>
       </c>
     </row>
     <row r="13">
@@ -2091,7 +2091,7 @@
         <v>0</v>
       </c>
       <c r="AD13" t="n">
-        <v>0</v>
+        <v>0.02723072536736864</v>
       </c>
     </row>
     <row r="14">
@@ -2219,7 +2219,7 @@
         <v>0</v>
       </c>
       <c r="AD14" t="n">
-        <v>0</v>
+        <v>8.788280235115565e-05</v>
       </c>
     </row>
     <row r="15">
@@ -2347,7 +2347,7 @@
         <v>0</v>
       </c>
       <c r="AD15" t="n">
-        <v>0.001388888888888889</v>
+        <v>0.00477706500277249</v>
       </c>
     </row>
     <row r="16">
@@ -2475,7 +2475,7 @@
         <v>0</v>
       </c>
       <c r="AD16" t="n">
-        <v>0</v>
+        <v>0.02064548495080002</v>
       </c>
     </row>
     <row r="17">
@@ -2607,7 +2607,7 @@
         <v>0</v>
       </c>
       <c r="AD17" t="n">
-        <v>0.3794423829669929</v>
+        <v>0.04741845887509561</v>
       </c>
     </row>
     <row r="18">
@@ -2739,7 +2739,7 @@
         <v>0</v>
       </c>
       <c r="AD18" t="n">
-        <v>0.4657092733018447</v>
+        <v>0.952</v>
       </c>
     </row>
     <row r="19">
@@ -2871,7 +2871,7 @@
         <v>0</v>
       </c>
       <c r="AD19" t="n">
-        <v>0.09401039990186555</v>
+        <v>0.03117382465983079</v>
       </c>
     </row>
     <row r="20">
@@ -3003,7 +3003,7 @@
         <v>0</v>
       </c>
       <c r="AD20" t="n">
-        <v>0.0003636363636363637</v>
+        <v>0.2835266861951172</v>
       </c>
     </row>
     <row r="21">
@@ -3135,7 +3135,7 @@
         <v>0</v>
       </c>
       <c r="AD21" t="n">
-        <v>0.0003636363636363637</v>
+        <v>0.615936163269145</v>
       </c>
     </row>
     <row r="22">
@@ -3263,7 +3263,7 @@
         <v>0</v>
       </c>
       <c r="AD22" t="n">
-        <v>0</v>
+        <v>0.008942855865333003</v>
       </c>
     </row>
     <row r="23">
@@ -3387,7 +3387,7 @@
         <v>0</v>
       </c>
       <c r="AD23" t="n">
-        <v>0</v>
+        <v>0.00153865512551742</v>
       </c>
     </row>
     <row r="24">
@@ -3511,7 +3511,7 @@
         <v>0</v>
       </c>
       <c r="AD24" t="n">
-        <v>0</v>
+        <v>0.00153544994604786</v>
       </c>
     </row>
     <row r="25">
@@ -3635,7 +3635,7 @@
         <v>0</v>
       </c>
       <c r="AD25" t="n">
-        <v>0</v>
+        <v>1.638852242425088e-05</v>
       </c>
     </row>
     <row r="26">
@@ -3759,7 +3759,7 @@
         <v>0</v>
       </c>
       <c r="AD26" t="n">
-        <v>0</v>
+        <v>0.0006561147358996882</v>
       </c>
     </row>
     <row r="27">
@@ -3883,7 +3883,7 @@
         <v>0</v>
       </c>
       <c r="AD27" t="n">
-        <v>0</v>
+        <v>0.0003568274887375962</v>
       </c>
     </row>
     <row r="28">
@@ -4007,7 +4007,7 @@
         <v>0</v>
       </c>
       <c r="AD28" t="n">
-        <v>0</v>
+        <v>0.0005297437283897545</v>
       </c>
     </row>
     <row r="29">
@@ -4131,7 +4131,7 @@
         <v>0</v>
       </c>
       <c r="AD29" t="n">
-        <v>0</v>
+        <v>0.002932798728896416</v>
       </c>
     </row>
     <row r="30">
@@ -4263,7 +4263,7 @@
         <v>0</v>
       </c>
       <c r="AD30" t="n">
-        <v>0.5156384644305699</v>
+        <v>0.996</v>
       </c>
     </row>
     <row r="31">
@@ -4395,7 +4395,7 @@
         <v>0</v>
       </c>
       <c r="AD31" t="n">
-        <v>0.3794423829669929</v>
+        <v>0.04741845887509561</v>
       </c>
     </row>
     <row r="32">
@@ -4527,7 +4527,7 @@
         <v>0</v>
       </c>
       <c r="AD32" t="n">
-        <v>0.09401039990186555</v>
+        <v>0.03400358506336168</v>
       </c>
     </row>
     <row r="33">
@@ -4659,7 +4659,7 @@
         <v>0</v>
       </c>
       <c r="AD33" t="n">
-        <v>0.0003636363636363637</v>
+        <v>0.2770372480701681</v>
       </c>
     </row>
     <row r="34">
@@ -4791,7 +4791,7 @@
         <v>0</v>
       </c>
       <c r="AD34" t="n">
-        <v>0.0003636363636363637</v>
+        <v>0.2841173184770634</v>
       </c>
     </row>
     <row r="35">
@@ -4919,7 +4919,7 @@
         <v>0</v>
       </c>
       <c r="AD35" t="n">
-        <v>0</v>
+        <v>0.0003455750923617454</v>
       </c>
     </row>
     <row r="36">
@@ -5051,7 +5051,7 @@
         <v>0</v>
       </c>
       <c r="AD36" t="n">
-        <v>0.464898274571916</v>
+        <v>0.0532389807122825</v>
       </c>
     </row>
     <row r="37">
@@ -5175,7 +5175,7 @@
         <v>0</v>
       </c>
       <c r="AD37" t="n">
-        <v>0</v>
+        <v>7.241981944052226e-05</v>
       </c>
     </row>
     <row r="38">
@@ -5307,7 +5307,7 @@
         <v>0</v>
       </c>
       <c r="AD38" t="n">
-        <v>0.05704545454545455</v>
+        <v>0.2370466391834432</v>
       </c>
     </row>
     <row r="39">
@@ -5439,7 +5439,7 @@
         <v>0</v>
       </c>
       <c r="AD39" t="n">
-        <v>0.05704545454545455</v>
+        <v>0.2370466391834432</v>
       </c>
     </row>
     <row r="40">
@@ -5571,7 +5571,7 @@
         <v>0</v>
       </c>
       <c r="AD40" t="n">
-        <v>0.002856565656565656</v>
+        <v>0.2319952304377842</v>
       </c>
     </row>
     <row r="41">
@@ -5703,7 +5703,7 @@
         <v>0</v>
       </c>
       <c r="AD41" t="n">
-        <v>0.3996575609251539</v>
+        <v>0.02916043191311481</v>
       </c>
     </row>
     <row r="42">
@@ -5835,7 +5835,7 @@
         <v>0</v>
       </c>
       <c r="AD42" t="n">
-        <v>0.4214083333411436</v>
+        <v>0.0321031208630656</v>
       </c>
     </row>
     <row r="43">
@@ -5963,7 +5963,7 @@
         <v>0</v>
       </c>
       <c r="AD43" t="n">
-        <v>0</v>
+        <v>0.0007574590312702145</v>
       </c>
     </row>
     <row r="44">
@@ -6095,7 +6095,7 @@
         <v>0</v>
       </c>
       <c r="AD44" t="n">
-        <v>0.002856565656565656</v>
+        <v>0.2396522217184984</v>
       </c>
     </row>
     <row r="45">
@@ -6219,7 +6219,7 @@
         <v>0</v>
       </c>
       <c r="AD45" t="n">
-        <v>0</v>
+        <v>0.0001435658896931506</v>
       </c>
     </row>
     <row r="46">
@@ -6351,7 +6351,7 @@
         <v>0</v>
       </c>
       <c r="AD46" t="n">
-        <v>0.002856565656565656</v>
+        <v>0.6051904520180355</v>
       </c>
     </row>
     <row r="47">
@@ -6483,7 +6483,7 @@
         <v>0</v>
       </c>
       <c r="AD47" t="n">
-        <v>0.4363300717913726</v>
+        <v>0.04733379304032129</v>
       </c>
     </row>
     <row r="48">
@@ -6615,7 +6615,7 @@
         <v>0</v>
       </c>
       <c r="AD48" t="n">
-        <v>0.4363300717913726</v>
+        <v>0.04733379304032129</v>
       </c>
     </row>
     <row r="49">
@@ -6747,7 +6747,7 @@
         <v>0</v>
       </c>
       <c r="AD49" t="n">
-        <v>0.08183998490186797</v>
+        <v>0.04083605171026184</v>
       </c>
     </row>
     <row r="50">
@@ -6879,7 +6879,7 @@
         <v>0</v>
       </c>
       <c r="AD50" t="n">
-        <v>0.002380952380952381</v>
+        <v>0.2672808500163275</v>
       </c>
     </row>
     <row r="51">
@@ -7011,7 +7011,7 @@
         <v>0</v>
       </c>
       <c r="AD51" t="n">
-        <v>0.3933656782326828</v>
+        <v>0.2713379601750404</v>
       </c>
     </row>
     <row r="52">
@@ -7139,7 +7139,7 @@
         <v>0</v>
       </c>
       <c r="AD52" t="n">
-        <v>0</v>
+        <v>0.00054678136726899</v>
       </c>
     </row>
     <row r="53">
@@ -7271,7 +7271,7 @@
         <v>0</v>
       </c>
       <c r="AD53" t="n">
-        <v>0.3451025792530799</v>
+        <v>0.04282959979533765</v>
       </c>
     </row>
     <row r="54">
@@ -7395,7 +7395,7 @@
         <v>0</v>
       </c>
       <c r="AD54" t="n">
-        <v>0</v>
+        <v>0.0002682652858873767</v>
       </c>
     </row>
     <row r="55">
@@ -7527,7 +7527,7 @@
         <v>0</v>
       </c>
       <c r="AD55" t="n">
-        <v>0.3451025792530799</v>
+        <v>0.03348088203724656</v>
       </c>
     </row>
     <row r="56">
@@ -7659,7 +7659,7 @@
         <v>0</v>
       </c>
       <c r="AD56" t="n">
-        <v>0.4060718470560328</v>
+        <v>0.6536612906614688</v>
       </c>
     </row>
     <row r="57">
@@ -7791,7 +7791,7 @@
         <v>0</v>
       </c>
       <c r="AD57" t="n">
-        <v>0.06054545454545455</v>
+        <v>0.2422657548083904</v>
       </c>
     </row>
     <row r="58">
@@ -7923,7 +7923,7 @@
         <v>0</v>
       </c>
       <c r="AD58" t="n">
-        <v>0.06054545454545455</v>
+        <v>0.2422657548083904</v>
       </c>
     </row>
     <row r="59">
@@ -8055,7 +8055,7 @@
         <v>0</v>
       </c>
       <c r="AD59" t="n">
-        <v>0.002856565656565656</v>
+        <v>0.2319952304377842</v>
       </c>
     </row>
     <row r="60">
@@ -8187,7 +8187,7 @@
         <v>0</v>
       </c>
       <c r="AD60" t="n">
-        <v>0.4893124007874948</v>
+        <v>0.04402087065830405</v>
       </c>
     </row>
     <row r="61">
@@ -8319,7 +8319,7 @@
         <v>0</v>
       </c>
       <c r="AD61" t="n">
-        <v>0.1993220184087486</v>
+        <v>0.03844159490291667</v>
       </c>
     </row>
     <row r="62">
@@ -8447,7 +8447,7 @@
         <v>0</v>
       </c>
       <c r="AD62" t="n">
-        <v>0</v>
+        <v>0.0007680266584598256</v>
       </c>
     </row>
     <row r="63">
@@ -8579,7 +8579,7 @@
         <v>0</v>
       </c>
       <c r="AD63" t="n">
-        <v>0.002856565656565656</v>
+        <v>0.2319952304377842</v>
       </c>
     </row>
     <row r="64">
@@ -8703,7 +8703,7 @@
         <v>0</v>
       </c>
       <c r="AD64" t="n">
-        <v>0</v>
+        <v>0.0004333766869585413</v>
       </c>
     </row>
     <row r="65">
@@ -8835,7 +8835,7 @@
         <v>0</v>
       </c>
       <c r="AD65" t="n">
-        <v>0.002856565656565656</v>
+        <v>0.2322672210701027</v>
       </c>
     </row>
     <row r="66">
@@ -8967,7 +8967,7 @@
         <v>0</v>
       </c>
       <c r="AD66" t="n">
-        <v>0.4272199243733715</v>
+        <v>0.02393568247316894</v>
       </c>
     </row>
     <row r="67">
@@ -9099,7 +9099,7 @@
         <v>0</v>
       </c>
       <c r="AD67" t="n">
-        <v>0.05704545454545455</v>
+        <v>0.5394232418538635</v>
       </c>
     </row>
     <row r="68">
@@ -9219,7 +9219,7 @@
         <v>0</v>
       </c>
       <c r="AD68" t="n">
-        <v>0.00185191166624794</v>
+        <v>2.378547032797849e-05</v>
       </c>
     </row>
     <row r="69">
@@ -9339,7 +9339,7 @@
         <v>0</v>
       </c>
       <c r="AD69" t="n">
-        <v>0.00185191166624794</v>
+        <v>2.378547032797849e-05</v>
       </c>
     </row>
     <row r="70">
@@ -9459,7 +9459,7 @@
         <v>0</v>
       </c>
       <c r="AD70" t="n">
-        <v>0.005545337019575919</v>
+        <v>0.0001299872254621376</v>
       </c>
     </row>
     <row r="71">
@@ -9579,7 +9579,7 @@
         <v>0</v>
       </c>
       <c r="AD71" t="n">
-        <v>0.4653246753246754</v>
+        <v>0.00109517884314645</v>
       </c>
     </row>
     <row r="72">
@@ -9699,7 +9699,7 @@
         <v>0</v>
       </c>
       <c r="AD72" t="n">
-        <v>0.01047760109834862</v>
+        <v>0.0008876509685595295</v>
       </c>
     </row>
     <row r="73">
@@ -9819,7 +9819,7 @@
         <v>0</v>
       </c>
       <c r="AD73" t="n">
-        <v>0.408</v>
+        <v>0.0001975717060628886</v>
       </c>
     </row>
     <row r="74">
@@ -9939,7 +9939,7 @@
         <v>0</v>
       </c>
       <c r="AD74" t="n">
-        <v>0.005545337019575919</v>
+        <v>0.0001419097746575911</v>
       </c>
     </row>
     <row r="75">
@@ -10059,7 +10059,7 @@
         <v>0</v>
       </c>
       <c r="AD75" t="n">
-        <v>0</v>
+        <v>0.0001708627323922254</v>
       </c>
     </row>
     <row r="76">
@@ -10179,7 +10179,7 @@
         <v>0</v>
       </c>
       <c r="AD76" t="n">
-        <v>0.005545337019575919</v>
+        <v>0.0001387045951880308</v>
       </c>
     </row>
     <row r="77">
@@ -10299,7 +10299,7 @@
         <v>0</v>
       </c>
       <c r="AD77" t="n">
-        <v>0.4445436318067897</v>
+        <v>0.001352694667176345</v>
       </c>
     </row>
     <row r="78">
@@ -10419,7 +10419,7 @@
         <v>0</v>
       </c>
       <c r="AD78" t="n">
-        <v>0.00185191166624794</v>
+        <v>9.934723738354514e-05</v>
       </c>
     </row>
     <row r="79">
@@ -10539,7 +10539,7 @@
         <v>0</v>
       </c>
       <c r="AD79" t="n">
-        <v>0.5838410774410775</v>
+        <v>0.005381637628091743</v>
       </c>
     </row>
     <row r="80">
@@ -10671,7 +10671,7 @@
         <v>0</v>
       </c>
       <c r="AD80" t="n">
-        <v>0.08143522606343538</v>
+        <v>0.01200121905910544</v>
       </c>
     </row>
     <row r="81">
@@ -10803,7 +10803,7 @@
         <v>0</v>
       </c>
       <c r="AD81" t="n">
-        <v>0.08143522606343538</v>
+        <v>0.01200121905910544</v>
       </c>
     </row>
     <row r="82">
@@ -10935,7 +10935,7 @@
         <v>0</v>
       </c>
       <c r="AD82" t="n">
-        <v>0.08013116833372376</v>
+        <v>0.0003299640887822251</v>
       </c>
     </row>
     <row r="83">
@@ -11067,7 +11067,7 @@
         <v>0</v>
       </c>
       <c r="AD83" t="n">
-        <v>0</v>
+        <v>0.007631520579161047</v>
       </c>
     </row>
     <row r="84">
@@ -11199,7 +11199,7 @@
         <v>0</v>
       </c>
       <c r="AD84" t="n">
-        <v>0</v>
+        <v>0.007534243850838739</v>
       </c>
     </row>
     <row r="85">
@@ -11327,7 +11327,7 @@
         <v>0</v>
       </c>
       <c r="AD85" t="n">
-        <v>0</v>
+        <v>8.132764337738933e-05</v>
       </c>
     </row>
     <row r="86">
@@ -11459,7 +11459,7 @@
         <v>0</v>
       </c>
       <c r="AD86" t="n">
-        <v>0.08013116833372376</v>
+        <v>0.0003474951333402967</v>
       </c>
     </row>
     <row r="87">
@@ -11583,7 +11583,7 @@
         <v>0</v>
       </c>
       <c r="AD87" t="n">
-        <v>0</v>
+        <v>4.545753340636993e-05</v>
       </c>
     </row>
     <row r="88">
@@ -11715,7 +11715,7 @@
         <v>0</v>
       </c>
       <c r="AD88" t="n">
-        <v>0.08013116833372376</v>
+        <v>0.0003474951333402967</v>
       </c>
     </row>
     <row r="89">
@@ -11847,7 +11847,7 @@
         <v>0</v>
       </c>
       <c r="AD89" t="n">
-        <v>0</v>
+        <v>0.007631520579161047</v>
       </c>
     </row>
     <row r="90">
@@ -11979,7 +11979,7 @@
         <v>0</v>
       </c>
       <c r="AD90" t="n">
-        <v>0.08143522606343538</v>
+        <v>0.03541835376786449</v>
       </c>
     </row>
     <row r="91">
@@ -12111,7 +12111,7 @@
         <v>0</v>
       </c>
       <c r="AD91" t="n">
-        <v>0</v>
+        <v>0.006895151585664003</v>
       </c>
     </row>
     <row r="92">
@@ -12231,7 +12231,7 @@
         <v>0</v>
       </c>
       <c r="AD92" t="n">
-        <v>0</v>
+        <v>0.002580258691230085</v>
       </c>
     </row>
     <row r="93">
@@ -12363,7 +12363,7 @@
         <v>0</v>
       </c>
       <c r="AD93" t="n">
-        <v>0.002545454545454546</v>
+        <v>0.2692031937464525</v>
       </c>
     </row>
     <row r="94">
@@ -12495,7 +12495,7 @@
         <v>0</v>
       </c>
       <c r="AD94" t="n">
-        <v>0.002545454545454546</v>
+        <v>0.2692031937464525</v>
       </c>
     </row>
     <row r="95">
@@ -12627,7 +12627,7 @@
         <v>0</v>
       </c>
       <c r="AD95" t="n">
-        <v>0.002545454545454546</v>
+        <v>0.2679221947119396</v>
       </c>
     </row>
     <row r="96">
@@ -12759,7 +12759,7 @@
         <v>0</v>
       </c>
       <c r="AD96" t="n">
-        <v>0.1807118304562619</v>
+        <v>0.04004575210416832</v>
       </c>
     </row>
     <row r="97">
@@ -12891,7 +12891,7 @@
         <v>0</v>
       </c>
       <c r="AD97" t="n">
-        <v>0.1703615196490382</v>
+        <v>0.04379797202349887</v>
       </c>
     </row>
     <row r="98">
@@ -13019,7 +13019,7 @@
         <v>0</v>
       </c>
       <c r="AD98" t="n">
-        <v>0</v>
+        <v>0.0006499285526901985</v>
       </c>
     </row>
     <row r="99">
@@ -13151,7 +13151,7 @@
         <v>0</v>
       </c>
       <c r="AD99" t="n">
-        <v>0.002545454545454546</v>
+        <v>0.2679221947119396</v>
       </c>
     </row>
     <row r="100">
@@ -13275,7 +13275,7 @@
         <v>0</v>
       </c>
       <c r="AD100" t="n">
-        <v>0</v>
+        <v>0.0003640653924694288</v>
       </c>
     </row>
     <row r="101">
@@ -13407,7 +13407,7 @@
         <v>0</v>
       </c>
       <c r="AD101" t="n">
-        <v>0.002545454545454546</v>
+        <v>0.2679221947119396</v>
       </c>
     </row>
     <row r="102">
@@ -13539,7 +13539,7 @@
         <v>0</v>
       </c>
       <c r="AD102" t="n">
-        <v>0.1807118304562619</v>
+        <v>0.03149468891159572</v>
       </c>
     </row>
     <row r="103">
@@ -13671,7 +13671,7 @@
         <v>0</v>
       </c>
       <c r="AD103" t="n">
-        <v>0.002545454545454546</v>
+        <v>0.2714698604131192</v>
       </c>
     </row>
     <row r="104">
@@ -13803,7 +13803,7 @@
         <v>0</v>
       </c>
       <c r="AD104" t="n">
-        <v>0.1807118304562619</v>
+        <v>0.03010338375413149</v>
       </c>
     </row>
     <row r="105">
@@ -13923,7 +13923,7 @@
         <v>0</v>
       </c>
       <c r="AD105" t="n">
-        <v>0.0113808318284253</v>
+        <v>0.003453434094061447</v>
       </c>
     </row>
     <row r="106">
@@ -14055,7 +14055,7 @@
         <v>0</v>
       </c>
       <c r="AD106" t="n">
-        <v>0</v>
+        <v>0.0369641887663279</v>
       </c>
     </row>
     <row r="107">
@@ -14187,7 +14187,7 @@
         <v>0</v>
       </c>
       <c r="AD107" t="n">
-        <v>0.06682434972165785</v>
+        <v>0.04310076952248232</v>
       </c>
     </row>
     <row r="108">
@@ -14319,7 +14319,7 @@
         <v>0</v>
       </c>
       <c r="AD108" t="n">
-        <v>0.5126695760399733</v>
+        <v>0.08799999999999999</v>
       </c>
     </row>
     <row r="109">
@@ -14451,7 +14451,7 @@
         <v>0</v>
       </c>
       <c r="AD109" t="n">
-        <v>0.4125267490795315</v>
+        <v>0.03870022178439602</v>
       </c>
     </row>
     <row r="110">
@@ -14583,7 +14583,7 @@
         <v>0</v>
       </c>
       <c r="AD110" t="n">
-        <v>0.0003636363636363637</v>
+        <v>0.2774962149632987</v>
       </c>
     </row>
     <row r="111">
@@ -14715,7 +14715,7 @@
         <v>0</v>
       </c>
       <c r="AD111" t="n">
-        <v>0.0003636363636363637</v>
+        <v>0.2799617629215078</v>
       </c>
     </row>
     <row r="112">
@@ -14843,7 +14843,7 @@
         <v>0</v>
       </c>
       <c r="AD112" t="n">
-        <v>0</v>
+        <v>0.0004937289126539485</v>
       </c>
     </row>
     <row r="113">
@@ -14975,7 +14975,7 @@
         <v>0</v>
       </c>
       <c r="AD113" t="n">
-        <v>0.5182826679651292</v>
+        <v>0.092</v>
       </c>
     </row>
     <row r="114">
@@ -15099,7 +15099,7 @@
         <v>0</v>
       </c>
       <c r="AD114" t="n">
-        <v>0</v>
+        <v>0.0002017468851665312</v>
       </c>
     </row>
     <row r="115">
@@ -15231,7 +15231,7 @@
         <v>0</v>
       </c>
       <c r="AD115" t="n">
-        <v>0.09401039990186555</v>
+        <v>0.03800358506336168</v>
       </c>
     </row>
     <row r="116">
@@ -15363,7 +15363,7 @@
         <v>0</v>
       </c>
       <c r="AD116" t="n">
-        <v>0.0003636363636363637</v>
+        <v>0.2770372480701681</v>
       </c>
     </row>
     <row r="117">
@@ -15495,7 +15495,7 @@
         <v>0</v>
       </c>
       <c r="AD117" t="n">
-        <v>0.06682434972165785</v>
+        <v>0.03525461567632849</v>
       </c>
     </row>
     <row r="118">
@@ -15627,7 +15627,7 @@
         <v>0</v>
       </c>
       <c r="AD118" t="n">
-        <v>0.0003636363636363637</v>
+        <v>0.2835266861951172</v>
       </c>
     </row>
     <row r="119">
@@ -15747,7 +15747,7 @@
         <v>0</v>
       </c>
       <c r="AD119" t="n">
-        <v>0.009751231683667217</v>
+        <v>0.01746977273919437</v>
       </c>
     </row>
     <row r="120">
@@ -15879,7 +15879,7 @@
         <v>0</v>
       </c>
       <c r="AD120" t="n">
-        <v>0.1025462591221458</v>
+        <v>0.02437948177075274</v>
       </c>
     </row>
     <row r="121">
@@ -16011,7 +16011,7 @@
         <v>0</v>
       </c>
       <c r="AD121" t="n">
-        <v>0.0003636363636363637</v>
+        <v>0.692991409150478</v>
       </c>
     </row>
     <row r="122">
@@ -16143,7 +16143,7 @@
         <v>0</v>
       </c>
       <c r="AD122" t="n">
-        <v>0.5126695760399733</v>
+        <v>0.08799999999999999</v>
       </c>
     </row>
     <row r="123">
@@ -16275,7 +16275,7 @@
         <v>0</v>
       </c>
       <c r="AD123" t="n">
-        <v>0.06682434972165785</v>
+        <v>0.04310076952248232</v>
       </c>
     </row>
     <row r="124">
@@ -16407,7 +16407,7 @@
         <v>0</v>
       </c>
       <c r="AD124" t="n">
-        <v>0.4125267490795315</v>
+        <v>0.03870022178439602</v>
       </c>
     </row>
     <row r="125">
@@ -16539,7 +16539,7 @@
         <v>0</v>
       </c>
       <c r="AD125" t="n">
-        <v>0.0003636363636363637</v>
+        <v>0.2774962149632987</v>
       </c>
     </row>
     <row r="126">
@@ -16671,7 +16671,7 @@
         <v>0</v>
       </c>
       <c r="AD126" t="n">
-        <v>0.0003636363636363637</v>
+        <v>0.2799617629215078</v>
       </c>
     </row>
     <row r="127">
@@ -16799,7 +16799,7 @@
         <v>0</v>
       </c>
       <c r="AD127" t="n">
-        <v>0</v>
+        <v>0.0004937289126539485</v>
       </c>
     </row>
     <row r="128">
@@ -16931,7 +16931,7 @@
         <v>0</v>
       </c>
       <c r="AD128" t="n">
-        <v>0.09401039990186555</v>
+        <v>0.03800358506336168</v>
       </c>
     </row>
     <row r="129">
@@ -17055,7 +17055,7 @@
         <v>0</v>
       </c>
       <c r="AD129" t="n">
-        <v>0</v>
+        <v>0.004655636978768448</v>
       </c>
     </row>
     <row r="130">
@@ -17187,7 +17187,7 @@
         <v>0</v>
       </c>
       <c r="AD130" t="n">
-        <v>0.5182826679651292</v>
+        <v>0.092</v>
       </c>
     </row>
     <row r="131">
@@ -17319,7 +17319,7 @@
         <v>0</v>
       </c>
       <c r="AD131" t="n">
-        <v>0.0003636363636363637</v>
+        <v>0.2770372480701681</v>
       </c>
     </row>
     <row r="132">
@@ -17451,7 +17451,7 @@
         <v>0</v>
       </c>
       <c r="AD132" t="n">
-        <v>0.06682434972165785</v>
+        <v>0.04024362666533946</v>
       </c>
     </row>
     <row r="133">
@@ -17583,7 +17583,7 @@
         <v>0</v>
       </c>
       <c r="AD133" t="n">
-        <v>0.0003636363636363637</v>
+        <v>0.2820509744759354</v>
       </c>
     </row>
     <row r="134">
@@ -17703,7 +17703,7 @@
         <v>0</v>
       </c>
       <c r="AD134" t="n">
-        <v>0.009751231683667217</v>
+        <v>6.329361439889037e-05</v>
       </c>
     </row>
     <row r="135">
@@ -17835,7 +17835,7 @@
         <v>0</v>
       </c>
       <c r="AD135" t="n">
-        <v>0.1025462591221458</v>
+        <v>0.0008592022086136255</v>
       </c>
     </row>
     <row r="136">
@@ -17967,7 +17967,7 @@
         <v>0</v>
       </c>
       <c r="AD136" t="n">
-        <v>0.0003636363636363637</v>
+        <v>0.4803832041573184</v>
       </c>
     </row>
     <row r="137">
@@ -18099,7 +18099,7 @@
         <v>0</v>
       </c>
       <c r="AD137" t="n">
-        <v>0.464898274571916</v>
+        <v>0.03944820437074856</v>
       </c>
     </row>
     <row r="138">
@@ -18231,7 +18231,7 @@
         <v>0</v>
       </c>
       <c r="AD138" t="n">
-        <v>0.08143522606343538</v>
+        <v>0.01200121905910544</v>
       </c>
     </row>
     <row r="139">
@@ -18363,7 +18363,7 @@
         <v>0</v>
       </c>
       <c r="AD139" t="n">
-        <v>0.08143522606343538</v>
+        <v>0.01200121905910544</v>
       </c>
     </row>
     <row r="140">
@@ -18495,7 +18495,7 @@
         <v>0</v>
       </c>
       <c r="AD140" t="n">
-        <v>0.08013116833372376</v>
+        <v>0.0003299640887822251</v>
       </c>
     </row>
     <row r="141">
@@ -18627,7 +18627,7 @@
         <v>0</v>
       </c>
       <c r="AD141" t="n">
-        <v>0</v>
+        <v>0.007631520579161047</v>
       </c>
     </row>
     <row r="142">
@@ -18759,7 +18759,7 @@
         <v>0</v>
       </c>
       <c r="AD142" t="n">
-        <v>0</v>
+        <v>0.007534243850838739</v>
       </c>
     </row>
     <row r="143">
@@ -18887,7 +18887,7 @@
         <v>0</v>
       </c>
       <c r="AD143" t="n">
-        <v>0</v>
+        <v>8.132764337738933e-05</v>
       </c>
     </row>
     <row r="144">
@@ -19019,7 +19019,7 @@
         <v>0</v>
       </c>
       <c r="AD144" t="n">
-        <v>0.08013116833372376</v>
+        <v>0.0003299640887822251</v>
       </c>
     </row>
     <row r="145">
@@ -19143,7 +19143,7 @@
         <v>0</v>
       </c>
       <c r="AD145" t="n">
-        <v>0</v>
+        <v>2.306151998578301e-05</v>
       </c>
     </row>
     <row r="146">
@@ -19275,7 +19275,7 @@
         <v>0</v>
       </c>
       <c r="AD146" t="n">
-        <v>0.08013116833372376</v>
+        <v>0.0003299640887822251</v>
       </c>
     </row>
     <row r="147">
@@ -19407,7 +19407,7 @@
         <v>0</v>
       </c>
       <c r="AD147" t="n">
-        <v>0</v>
+        <v>0.01568915130093774</v>
       </c>
     </row>
     <row r="148">
@@ -19539,7 +19539,7 @@
         <v>0</v>
       </c>
       <c r="AD148" t="n">
-        <v>0.1274551545377029</v>
+        <v>0.01151030277714849</v>
       </c>
     </row>
     <row r="149">
@@ -19671,7 +19671,7 @@
         <v>0</v>
       </c>
       <c r="AD149" t="n">
-        <v>0</v>
+        <v>0.007631520579161047</v>
       </c>
     </row>
     <row r="150">
@@ -19791,7 +19791,7 @@
         <v>0</v>
       </c>
       <c r="AD150" t="n">
-        <v>0</v>
+        <v>4.156574876858571e-05</v>
       </c>
     </row>
     <row r="151">
@@ -19923,7 +19923,7 @@
         <v>0</v>
       </c>
       <c r="AD151" t="n">
-        <v>0.224</v>
+        <v>0.952</v>
       </c>
     </row>
     <row r="152">
@@ -20055,7 +20055,7 @@
         <v>0</v>
       </c>
       <c r="AD152" t="n">
-        <v>0</v>
+        <v>0.001838570858456416</v>
       </c>
     </row>
     <row r="153">
@@ -20187,7 +20187,7 @@
         <v>0</v>
       </c>
       <c r="AD153" t="n">
-        <v>0.08013116833372376</v>
+        <v>0.001653883970835258</v>
       </c>
     </row>
     <row r="154">
@@ -20319,7 +20319,7 @@
         <v>0</v>
       </c>
       <c r="AD154" t="n">
-        <v>0.08013116833372376</v>
+        <v>0.006673306590060432</v>
       </c>
     </row>
     <row r="155">
@@ -20451,7 +20451,7 @@
         <v>0</v>
       </c>
       <c r="AD155" t="n">
-        <v>0.1108438253129464</v>
+        <v>0.0378353979676021</v>
       </c>
     </row>
     <row r="156">
@@ -20583,7 +20583,7 @@
         <v>0</v>
       </c>
       <c r="AD156" t="n">
-        <v>0.1108438253129464</v>
+        <v>0.0378353979676021</v>
       </c>
     </row>
     <row r="157">
@@ -20715,7 +20715,7 @@
         <v>0</v>
       </c>
       <c r="AD157" t="n">
-        <v>0.1074249258037932</v>
+        <v>0.03800956624026739</v>
       </c>
     </row>
     <row r="158">
@@ -20847,7 +20847,7 @@
         <v>0</v>
       </c>
       <c r="AD158" t="n">
-        <v>0.3958511013062723</v>
+        <v>0.2284193085142915</v>
       </c>
     </row>
     <row r="159">
@@ -20979,7 +20979,7 @@
         <v>0</v>
       </c>
       <c r="AD159" t="n">
-        <v>0.0005</v>
+        <v>0.2405183424576805</v>
       </c>
     </row>
     <row r="160">
@@ -21107,7 +21107,7 @@
         <v>0</v>
       </c>
       <c r="AD160" t="n">
-        <v>0</v>
+        <v>0.0004851041921397406</v>
       </c>
     </row>
     <row r="161">
@@ -21239,7 +21239,7 @@
         <v>0</v>
       </c>
       <c r="AD161" t="n">
-        <v>0.1074249258037932</v>
+        <v>0.03800956624026739</v>
       </c>
     </row>
     <row r="162">
@@ -21363,7 +21363,7 @@
         <v>0</v>
       </c>
       <c r="AD162" t="n">
-        <v>0</v>
+        <v>0.0001814130055933878</v>
       </c>
     </row>
     <row r="163">
@@ -21495,7 +21495,7 @@
         <v>0</v>
       </c>
       <c r="AD163" t="n">
-        <v>0.1074249258037932</v>
+        <v>0.03800956624026739</v>
       </c>
     </row>
     <row r="164">
@@ -21627,7 +21627,7 @@
         <v>0</v>
       </c>
       <c r="AD164" t="n">
-        <v>0.358452027439032</v>
+        <v>0.2406850787017638</v>
       </c>
     </row>
     <row r="165">
@@ -21759,7 +21759,7 @@
         <v>0</v>
       </c>
       <c r="AD165" t="n">
-        <v>0.1108438253129464</v>
+        <v>0.03383539796760213</v>
       </c>
     </row>
     <row r="166">
@@ -21891,7 +21891,7 @@
         <v>0</v>
       </c>
       <c r="AD166" t="n">
-        <v>0.3895032528290547</v>
+        <v>0.2343295998752767</v>
       </c>
     </row>
     <row r="167">
@@ -22011,7 +22011,7 @@
         <v>0</v>
       </c>
       <c r="AD167" t="n">
-        <v>0.3019138869123532</v>
+        <v>0.05902063612527444</v>
       </c>
     </row>
     <row r="168">
@@ -22143,7 +22143,7 @@
         <v>0</v>
       </c>
       <c r="AD168" t="n">
-        <v>0.02164648447308528</v>
+        <v>0.004905952729673677</v>
       </c>
     </row>
     <row r="169">
@@ -22275,7 +22275,7 @@
         <v>0</v>
       </c>
       <c r="AD169" t="n">
-        <v>0.0005</v>
+        <v>0.2465649559944744</v>
       </c>
     </row>
     <row r="170">
@@ -22407,7 +22407,7 @@
         <v>0</v>
       </c>
       <c r="AD170" t="n">
-        <v>0.1074249258037932</v>
+        <v>0.0726120411232343</v>
       </c>
     </row>
     <row r="171">
@@ -22539,7 +22539,7 @@
         <v>0</v>
       </c>
       <c r="AD171" t="n">
-        <v>0.1074249258037932</v>
+        <v>0.04638784207416113</v>
       </c>
     </row>
     <row r="172">
@@ -22671,7 +22671,7 @@
         <v>0</v>
       </c>
       <c r="AD172" t="n">
-        <v>0.02164648447308528</v>
+        <v>0.009582375022842449</v>
       </c>
     </row>
     <row r="173">
@@ -22799,7 +22799,7 @@
         <v>0</v>
       </c>
       <c r="AD173" t="n">
-        <v>0</v>
+        <v>0.008830006292099443</v>
       </c>
     </row>
     <row r="174">
@@ -22927,7 +22927,7 @@
         <v>0</v>
       </c>
       <c r="AD174" t="n">
-        <v>0</v>
+        <v>0.008830006292099443</v>
       </c>
     </row>
     <row r="175">
@@ -23055,7 +23055,7 @@
         <v>0</v>
       </c>
       <c r="AD175" t="n">
-        <v>0.01442261666781791</v>
+        <v>8.760523992955368e-05</v>
       </c>
     </row>
     <row r="176">
@@ -23183,7 +23183,7 @@
         <v>0</v>
       </c>
       <c r="AD176" t="n">
-        <v>0.001388888888888889</v>
+        <v>0.007588033401083987</v>
       </c>
     </row>
     <row r="177">
@@ -23311,7 +23311,7 @@
         <v>0</v>
       </c>
       <c r="AD177" t="n">
-        <v>0</v>
+        <v>0.007205825612293201</v>
       </c>
     </row>
     <row r="178">
@@ -23439,7 +23439,7 @@
         <v>0</v>
       </c>
       <c r="AD178" t="n">
-        <v>0</v>
+        <v>0.0003958818920880084</v>
       </c>
     </row>
     <row r="179">
@@ -23567,7 +23567,7 @@
         <v>0</v>
       </c>
       <c r="AD179" t="n">
-        <v>0.01442261666781791</v>
+        <v>8.760523992955368e-05</v>
       </c>
     </row>
     <row r="180">
@@ -23691,7 +23691,7 @@
         <v>0</v>
       </c>
       <c r="AD180" t="n">
-        <v>0</v>
+        <v>0.0001727071655730907</v>
       </c>
     </row>
     <row r="181">
@@ -23819,7 +23819,7 @@
         <v>0</v>
       </c>
       <c r="AD181" t="n">
-        <v>0.01442261666781791</v>
+        <v>8.760523992955368e-05</v>
       </c>
     </row>
     <row r="182">
@@ -23947,7 +23947,7 @@
         <v>0</v>
       </c>
       <c r="AD182" t="n">
-        <v>0.001388888888888889</v>
+        <v>0.007588033401083987</v>
       </c>
     </row>
     <row r="183">
@@ -24075,7 +24075,7 @@
         <v>0</v>
       </c>
       <c r="AD183" t="n">
-        <v>0</v>
+        <v>0.008830006292099443</v>
       </c>
     </row>
     <row r="184">
@@ -24203,7 +24203,7 @@
         <v>0</v>
       </c>
       <c r="AD184" t="n">
-        <v>0.001388888888888889</v>
+        <v>0.007588033401083987</v>
       </c>
     </row>
     <row r="185">
@@ -24323,7 +24323,7 @@
         <v>0</v>
       </c>
       <c r="AD185" t="n">
-        <v>0</v>
+        <v>0.0002074293654098227</v>
       </c>
     </row>
     <row r="186">
@@ -24451,7 +24451,7 @@
         <v>0</v>
       </c>
       <c r="AD186" t="n">
-        <v>0.007349006944208182</v>
+        <v>7.775302318078523e-05</v>
       </c>
     </row>
     <row r="187">
@@ -24579,7 +24579,7 @@
         <v>0</v>
       </c>
       <c r="AD187" t="n">
-        <v>0</v>
+        <v>0.0256065446875624</v>
       </c>
     </row>
     <row r="188">
@@ -24707,7 +24707,7 @@
         <v>0</v>
       </c>
       <c r="AD188" t="n">
-        <v>0.01442261666781791</v>
+        <v>8.788280235115565e-05</v>
       </c>
     </row>
     <row r="189">
@@ -24835,7 +24835,7 @@
         <v>0</v>
       </c>
       <c r="AD189" t="n">
-        <v>0.01442261666781791</v>
+        <v>8.788280235115565e-05</v>
       </c>
     </row>
     <row r="190">
@@ -24963,7 +24963,7 @@
         <v>0</v>
       </c>
       <c r="AD190" t="n">
-        <v>0.007349006944208182</v>
+        <v>7.803058560238716e-05</v>
       </c>
     </row>
     <row r="191">
@@ -25091,7 +25091,7 @@
         <v>0</v>
       </c>
       <c r="AD191" t="n">
-        <v>0.009388888888888889</v>
+        <v>0.004018347389751855</v>
       </c>
     </row>
     <row r="192">
@@ -25223,7 +25223,7 @@
         <v>0</v>
       </c>
       <c r="AD192" t="n">
-        <v>0.016</v>
+        <v>0.2524774630506977</v>
       </c>
     </row>
     <row r="193">
@@ -25355,7 +25355,7 @@
         <v>0</v>
       </c>
       <c r="AD193" t="n">
-        <v>0.01304545454545454</v>
+        <v>0.2430568440418364</v>
       </c>
     </row>
     <row r="194">
@@ -25487,7 +25487,7 @@
         <v>0</v>
       </c>
       <c r="AD194" t="n">
-        <v>0.006688689088689089</v>
+        <v>0.2549195902961595</v>
       </c>
     </row>
     <row r="195">
@@ -25619,7 +25619,7 @@
         <v>0</v>
       </c>
       <c r="AD195" t="n">
-        <v>0.2072038869046805</v>
+        <v>0.03422446441961457</v>
       </c>
     </row>
     <row r="196">
@@ -25751,7 +25751,7 @@
         <v>0</v>
       </c>
       <c r="AD196" t="n">
-        <v>0.209419373684786</v>
+        <v>0.03676110746828389</v>
       </c>
     </row>
     <row r="197">
@@ -25879,7 +25879,7 @@
         <v>0</v>
       </c>
       <c r="AD197" t="n">
-        <v>0</v>
+        <v>0.0006867637385245953</v>
       </c>
     </row>
     <row r="198">
@@ -26011,7 +26011,7 @@
         <v>0</v>
       </c>
       <c r="AD198" t="n">
-        <v>0.007234143634143634</v>
+        <v>0.2441610733763192</v>
       </c>
     </row>
     <row r="199">
@@ -26135,7 +26135,7 @@
         <v>0</v>
       </c>
       <c r="AD199" t="n">
-        <v>0</v>
+        <v>0.0004193215883377914</v>
       </c>
     </row>
     <row r="200">
@@ -26267,7 +26267,7 @@
         <v>0</v>
       </c>
       <c r="AD200" t="n">
-        <v>0.007234143634143634</v>
+        <v>0.2441610733763192</v>
       </c>
     </row>
     <row r="201">
@@ -26399,7 +26399,7 @@
         <v>0</v>
       </c>
       <c r="AD201" t="n">
-        <v>0.2072038869046805</v>
+        <v>0.03422446441961457</v>
       </c>
     </row>
     <row r="202">
@@ -26531,7 +26531,7 @@
         <v>0</v>
       </c>
       <c r="AD202" t="n">
-        <v>0.01304545454545454</v>
+        <v>0.2430568440418364</v>
       </c>
     </row>
     <row r="203">
@@ -26663,7 +26663,7 @@
         <v>0</v>
       </c>
       <c r="AD203" t="n">
-        <v>0.2072038869046805</v>
+        <v>0.03422446441961457</v>
       </c>
     </row>
     <row r="204">
@@ -26783,7 +26783,7 @@
         <v>0</v>
       </c>
       <c r="AD204" t="n">
-        <v>0.01451376803776566</v>
+        <v>0.0008573823502059921</v>
       </c>
     </row>
     <row r="205">
@@ -26915,7 +26915,7 @@
         <v>0</v>
       </c>
       <c r="AD205" t="n">
-        <v>0</v>
+        <v>0.0007042947830826669</v>
       </c>
     </row>
     <row r="206">
@@ -27047,7 +27047,7 @@
         <v>0</v>
       </c>
       <c r="AD206" t="n">
-        <v>0.209419373684786</v>
+        <v>0.02919492637190436</v>
       </c>
     </row>
     <row r="207">
@@ -27179,7 +27179,7 @@
         <v>0</v>
       </c>
       <c r="AD207" t="n">
-        <v>0.007234143634143634</v>
+        <v>0.2446716051802817</v>
       </c>
     </row>
     <row r="208">
@@ -27311,7 +27311,7 @@
         <v>0</v>
       </c>
       <c r="AD208" t="n">
-        <v>0.007234143634143634</v>
+        <v>0.2516411464490505</v>
       </c>
     </row>
     <row r="209">
@@ -27443,7 +27443,7 @@
         <v>0</v>
       </c>
       <c r="AD209" t="n">
-        <v>0</v>
+        <v>0.0004735409276732055</v>
       </c>
     </row>
     <row r="210">
@@ -27575,7 +27575,7 @@
         <v>0</v>
       </c>
       <c r="AD210" t="n">
-        <v>0.03304545454545454</v>
+        <v>0.3307438602792345</v>
       </c>
     </row>
     <row r="211">
@@ -27703,7 +27703,7 @@
         <v>0</v>
       </c>
       <c r="AD211" t="n">
-        <v>0</v>
+        <v>0.01803609845815642</v>
       </c>
     </row>
     <row r="212">
@@ -27835,7 +27835,7 @@
         <v>0</v>
       </c>
       <c r="AD212" t="n">
-        <v>0.06682434972165785</v>
+        <v>0.04310076952248232</v>
       </c>
     </row>
     <row r="213">
@@ -27967,7 +27967,7 @@
         <v>0</v>
       </c>
       <c r="AD213" t="n">
-        <v>0.06682434972165785</v>
+        <v>0.04310076952248232</v>
       </c>
     </row>
     <row r="214">
@@ -28099,7 +28099,7 @@
         <v>0</v>
       </c>
       <c r="AD214" t="n">
-        <v>0.09401039990186555</v>
+        <v>0.03800358506336168</v>
       </c>
     </row>
     <row r="215">
@@ -28231,7 +28231,7 @@
         <v>0</v>
       </c>
       <c r="AD215" t="n">
-        <v>0.0003636363636363637</v>
+        <v>0.2774962149632987</v>
       </c>
     </row>
     <row r="216">
@@ -28363,7 +28363,7 @@
         <v>0</v>
       </c>
       <c r="AD216" t="n">
-        <v>0.0003636363636363637</v>
+        <v>0.2799617629215078</v>
       </c>
     </row>
     <row r="217">
@@ -28491,7 +28491,7 @@
         <v>0</v>
       </c>
       <c r="AD217" t="n">
-        <v>0</v>
+        <v>0.0004937289126539485</v>
       </c>
     </row>
     <row r="218">
@@ -28623,7 +28623,7 @@
         <v>0</v>
       </c>
       <c r="AD218" t="n">
-        <v>0.09401039990186555</v>
+        <v>0.03800358506336168</v>
       </c>
     </row>
     <row r="219">
@@ -28747,7 +28747,7 @@
         <v>0</v>
       </c>
       <c r="AD219" t="n">
-        <v>0</v>
+        <v>0.0002017468851665312</v>
       </c>
     </row>
     <row r="220">
@@ -28879,7 +28879,7 @@
         <v>0</v>
       </c>
       <c r="AD220" t="n">
-        <v>0.09401039990186555</v>
+        <v>0.03800358506336168</v>
       </c>
     </row>
     <row r="221">
@@ -29011,7 +29011,7 @@
         <v>0</v>
       </c>
       <c r="AD221" t="n">
-        <v>0.0003636363636363637</v>
+        <v>0.2774962149632987</v>
       </c>
     </row>
     <row r="222">
@@ -29143,7 +29143,7 @@
         <v>0</v>
       </c>
       <c r="AD222" t="n">
-        <v>0.06682434972165785</v>
+        <v>0.04310076952248232</v>
       </c>
     </row>
     <row r="223">
@@ -29275,7 +29275,7 @@
         <v>0</v>
       </c>
       <c r="AD223" t="n">
-        <v>0.0003636363636363637</v>
+        <v>0.2774962149632987</v>
       </c>
     </row>
     <row r="224">
@@ -29395,7 +29395,7 @@
         <v>0</v>
       </c>
       <c r="AD224" t="n">
-        <v>0.009751231683667217</v>
+        <v>0.0001789923688951752</v>
       </c>
     </row>
     <row r="225">
@@ -29527,7 +29527,7 @@
         <v>0</v>
       </c>
       <c r="AD225" t="n">
-        <v>0.1025462591221458</v>
+        <v>0.0006049330369833537</v>
       </c>
     </row>
     <row r="226">
@@ -29659,7 +29659,7 @@
         <v>0</v>
       </c>
       <c r="AD226" t="n">
-        <v>0.0003636363636363637</v>
+        <v>0.2799617629215078</v>
       </c>
     </row>
     <row r="227">
@@ -29791,7 +29791,7 @@
         <v>0</v>
       </c>
       <c r="AD227" t="n">
-        <v>0.09401039990186555</v>
+        <v>0.03015743121720784</v>
       </c>
     </row>
     <row r="228">
@@ -29923,7 +29923,7 @@
         <v>0</v>
       </c>
       <c r="AD228" t="n">
-        <v>0.09401039990186555</v>
+        <v>0.03015743121720784</v>
       </c>
     </row>
     <row r="229">
@@ -30055,7 +30055,7 @@
         <v>0</v>
       </c>
       <c r="AD229" t="n">
-        <v>0.1025462591221458</v>
+        <v>0.001507165272647392</v>
       </c>
     </row>
     <row r="230">
@@ -30187,7 +30187,7 @@
         <v>0</v>
       </c>
       <c r="AD230" t="n">
-        <v>0.07811048912177149</v>
+        <v>0.03173249901122509</v>
       </c>
     </row>
     <row r="231">
@@ -30315,7 +30315,7 @@
         <v>0</v>
       </c>
       <c r="AD231" t="n">
-        <v>0</v>
+        <v>0.0002961923763123626</v>
       </c>
     </row>
     <row r="232">
@@ -30447,7 +30447,7 @@
         <v>0</v>
       </c>
       <c r="AD232" t="n">
-        <v>0.001411255411255411</v>
+        <v>0.6550567459972381</v>
       </c>
     </row>
     <row r="233">
@@ -30579,7 +30579,7 @@
         <v>0</v>
       </c>
       <c r="AD233" t="n">
-        <v>0.0003636363636363637</v>
+        <v>0.2834001467598917</v>
       </c>
     </row>
     <row r="234">
@@ -30711,7 +30711,7 @@
         <v>0</v>
       </c>
       <c r="AD234" t="n">
-        <v>0.0009090909090909091</v>
+        <v>0.2794001467598917</v>
       </c>
     </row>
     <row r="235">
@@ -30843,7 +30843,7 @@
         <v>0</v>
       </c>
       <c r="AD235" t="n">
-        <v>0.001163636363636364</v>
+        <v>0.2890657611790199</v>
       </c>
     </row>
     <row r="236">
@@ -30975,7 +30975,7 @@
         <v>0</v>
       </c>
       <c r="AD236" t="n">
-        <v>0.1997123215368839</v>
+        <v>0.04058028808997462</v>
       </c>
     </row>
     <row r="237">
@@ -31107,7 +31107,7 @@
         <v>0</v>
       </c>
       <c r="AD237" t="n">
-        <v>0.2019278083169894</v>
+        <v>0.04311693113864393</v>
       </c>
     </row>
     <row r="238">
@@ -31235,7 +31235,7 @@
         <v>0</v>
       </c>
       <c r="AD238" t="n">
-        <v>0</v>
+        <v>0.0006867637385245953</v>
       </c>
     </row>
     <row r="239">
@@ -31367,7 +31367,7 @@
         <v>0</v>
       </c>
       <c r="AD239" t="n">
-        <v>0.001709090909090909</v>
+        <v>0.2810657611790199</v>
       </c>
     </row>
     <row r="240">
@@ -31491,7 +31491,7 @@
         <v>0</v>
       </c>
       <c r="AD240" t="n">
-        <v>0</v>
+        <v>0.0003947817110371779</v>
       </c>
     </row>
     <row r="241">
@@ -31623,7 +31623,7 @@
         <v>0</v>
       </c>
       <c r="AD241" t="n">
-        <v>0.001709090909090909</v>
+        <v>0.2810657611790199</v>
       </c>
     </row>
     <row r="242">
@@ -31755,7 +31755,7 @@
         <v>0</v>
       </c>
       <c r="AD242" t="n">
-        <v>0.1997123215368839</v>
+        <v>0.04058028808997462</v>
       </c>
     </row>
     <row r="243">
@@ -31887,7 +31887,7 @@
         <v>0</v>
       </c>
       <c r="AD243" t="n">
-        <v>0.0009090909090909091</v>
+        <v>0.2794001467598917</v>
       </c>
     </row>
     <row r="244">
@@ -32019,7 +32019,7 @@
         <v>0</v>
       </c>
       <c r="AD244" t="n">
-        <v>0.1997123215368839</v>
+        <v>0.04058028808997462</v>
       </c>
     </row>
     <row r="245">
@@ -32139,7 +32139,7 @@
         <v>0</v>
       </c>
       <c r="AD245" t="n">
-        <v>0.01370950544348088</v>
+        <v>0.0007077940408157154</v>
       </c>
     </row>
     <row r="246">
@@ -32271,7 +32271,7 @@
         <v>0</v>
       </c>
       <c r="AD246" t="n">
-        <v>0</v>
+        <v>0.0007042947830826669</v>
       </c>
     </row>
     <row r="247">
@@ -32403,7 +32403,7 @@
         <v>0</v>
       </c>
       <c r="AD247" t="n">
-        <v>0.2019278083169894</v>
+        <v>0.04311693113864393</v>
       </c>
     </row>
     <row r="248">
@@ -32535,7 +32535,7 @@
         <v>0</v>
       </c>
       <c r="AD248" t="n">
-        <v>0.001709090909090909</v>
+        <v>0.2810657611790199</v>
       </c>
     </row>
     <row r="249">
@@ -32667,7 +32667,7 @@
         <v>0</v>
       </c>
       <c r="AD249" t="n">
-        <v>0.001709090909090909</v>
+        <v>0.2810657611790199</v>
       </c>
     </row>
     <row r="250">
@@ -32799,7 +32799,7 @@
         <v>0</v>
       </c>
       <c r="AD250" t="n">
-        <v>0</v>
+        <v>0.000682395711133849</v>
       </c>
     </row>
     <row r="251">
@@ -32931,7 +32931,7 @@
         <v>0</v>
       </c>
       <c r="AD251" t="n">
-        <v>0.0169090909090909</v>
+        <v>0.2845271549490813</v>
       </c>
     </row>
     <row r="252">
@@ -33059,7 +33059,7 @@
         <v>0</v>
       </c>
       <c r="AD252" t="n">
-        <v>0</v>
+        <v>0.0004735409276732055</v>
       </c>
     </row>
     <row r="253">
@@ -33191,7 +33191,7 @@
         <v>0</v>
       </c>
       <c r="AD253" t="n">
-        <v>0.181535095969058</v>
+        <v>0.04578920146386856</v>
       </c>
     </row>
     <row r="254">
@@ -33323,7 +33323,7 @@
         <v>0</v>
       </c>
       <c r="AD254" t="n">
-        <v>0.001709090909090909</v>
+        <v>0.7057842327438741</v>
       </c>
     </row>
     <row r="255">
@@ -33451,7 +33451,7 @@
         <v>0</v>
       </c>
       <c r="AD255" t="n">
-        <v>0</v>
+        <v>0.008830006292099443</v>
       </c>
     </row>
     <row r="256">
@@ -33579,7 +33579,7 @@
         <v>0</v>
       </c>
       <c r="AD256" t="n">
-        <v>0</v>
+        <v>0.008830006292099443</v>
       </c>
     </row>
     <row r="257">
@@ -33707,7 +33707,7 @@
         <v>0</v>
       </c>
       <c r="AD257" t="n">
-        <v>0.01442261666781791</v>
+        <v>8.760523992955368e-05</v>
       </c>
     </row>
     <row r="258">
@@ -33835,7 +33835,7 @@
         <v>0</v>
       </c>
       <c r="AD258" t="n">
-        <v>0.001388888888888889</v>
+        <v>0.007588033401083987</v>
       </c>
     </row>
     <row r="259">
@@ -33963,7 +33963,7 @@
         <v>0</v>
       </c>
       <c r="AD259" t="n">
-        <v>0</v>
+        <v>0.007205825612293201</v>
       </c>
     </row>
     <row r="260">
@@ -34091,7 +34091,7 @@
         <v>0</v>
       </c>
       <c r="AD260" t="n">
-        <v>0</v>
+        <v>0.0003958818920880084</v>
       </c>
     </row>
     <row r="261">
@@ -34219,7 +34219,7 @@
         <v>0</v>
       </c>
       <c r="AD261" t="n">
-        <v>0.01442261666781791</v>
+        <v>8.760523992955368e-05</v>
       </c>
     </row>
     <row r="262">
@@ -34343,7 +34343,7 @@
         <v>0</v>
       </c>
       <c r="AD262" t="n">
-        <v>0</v>
+        <v>0.0001727071655730907</v>
       </c>
     </row>
     <row r="263">
@@ -34471,7 +34471,7 @@
         <v>0</v>
       </c>
       <c r="AD263" t="n">
-        <v>0.01442261666781791</v>
+        <v>8.760523992955368e-05</v>
       </c>
     </row>
     <row r="264">
@@ -34599,7 +34599,7 @@
         <v>0</v>
       </c>
       <c r="AD264" t="n">
-        <v>0.001388888888888889</v>
+        <v>0.007588033401083987</v>
       </c>
     </row>
     <row r="265">
@@ -34727,7 +34727,7 @@
         <v>0</v>
       </c>
       <c r="AD265" t="n">
-        <v>0</v>
+        <v>0.008830006292099443</v>
       </c>
     </row>
     <row r="266">
@@ -34855,7 +34855,7 @@
         <v>0</v>
       </c>
       <c r="AD266" t="n">
-        <v>0.001388888888888889</v>
+        <v>0.007588033401083987</v>
       </c>
     </row>
     <row r="267">
@@ -34975,7 +34975,7 @@
         <v>0</v>
       </c>
       <c r="AD267" t="n">
-        <v>0</v>
+        <v>0.000210634544879383</v>
       </c>
     </row>
     <row r="268">
@@ -35103,7 +35103,7 @@
         <v>0</v>
       </c>
       <c r="AD268" t="n">
-        <v>0.007349006944208182</v>
+        <v>7.775302318078523e-05</v>
       </c>
     </row>
     <row r="269">
@@ -35231,7 +35231,7 @@
         <v>0</v>
       </c>
       <c r="AD269" t="n">
-        <v>0</v>
+        <v>0.007205825612293201</v>
       </c>
     </row>
     <row r="270">
@@ -35359,7 +35359,7 @@
         <v>0</v>
       </c>
       <c r="AD270" t="n">
-        <v>0.01442261666781791</v>
+        <v>8.760523992955368e-05</v>
       </c>
     </row>
     <row r="271">
@@ -35487,7 +35487,7 @@
         <v>0</v>
       </c>
       <c r="AD271" t="n">
-        <v>0.01442261666781791</v>
+        <v>8.760523992955368e-05</v>
       </c>
     </row>
     <row r="272">
@@ -35615,7 +35615,7 @@
         <v>0</v>
       </c>
       <c r="AD272" t="n">
-        <v>0.007349006944208182</v>
+        <v>7.775302318078523e-05</v>
       </c>
     </row>
     <row r="273">
@@ -35743,7 +35743,7 @@
         <v>0</v>
       </c>
       <c r="AD273" t="n">
-        <v>0.009388888888888889</v>
+        <v>0.008854759316852468</v>
       </c>
     </row>
     <row r="274">
@@ -35871,7 +35871,7 @@
         <v>0</v>
       </c>
       <c r="AD274" t="n">
-        <v>0</v>
+        <v>0.9426666666666668</v>
       </c>
     </row>
     <row r="275">
@@ -35999,7 +35999,7 @@
         <v>0</v>
       </c>
       <c r="AD275" t="n">
-        <v>0.01023629930441076</v>
+        <v>7.156926551128439e-05</v>
       </c>
     </row>
     <row r="276">
@@ -36127,7 +36127,7 @@
         <v>0</v>
       </c>
       <c r="AD276" t="n">
-        <v>0.01442261666781791</v>
+        <v>8.788280235115565e-05</v>
       </c>
     </row>
     <row r="277">
@@ -36255,7 +36255,7 @@
         <v>0</v>
       </c>
       <c r="AD277" t="n">
-        <v>0.003961737677527151</v>
+        <v>0.00281592850897394</v>
       </c>
     </row>
     <row r="278">
@@ -36387,7 +36387,7 @@
         <v>0</v>
       </c>
       <c r="AD278" t="n">
-        <v>0.0009090909090909091</v>
+        <v>0.2794001467598917</v>
       </c>
     </row>
     <row r="279">
@@ -36519,7 +36519,7 @@
         <v>0</v>
       </c>
       <c r="AD279" t="n">
-        <v>0.0009090909090909091</v>
+        <v>0.2794001467598917</v>
       </c>
     </row>
     <row r="280">
@@ -36651,7 +36651,7 @@
         <v>0</v>
       </c>
       <c r="AD280" t="n">
-        <v>0.001709090909090909</v>
+        <v>0.2810657611790199</v>
       </c>
     </row>
     <row r="281">
@@ -36783,7 +36783,7 @@
         <v>0</v>
       </c>
       <c r="AD281" t="n">
-        <v>0.1997123215368839</v>
+        <v>0.04058028808997462</v>
       </c>
     </row>
     <row r="282">
@@ -36915,7 +36915,7 @@
         <v>0</v>
       </c>
       <c r="AD282" t="n">
-        <v>0.2019278083169894</v>
+        <v>0.04311693113864393</v>
       </c>
     </row>
     <row r="283">
@@ -37043,7 +37043,7 @@
         <v>0</v>
       </c>
       <c r="AD283" t="n">
-        <v>0</v>
+        <v>0.0006867637385245953</v>
       </c>
     </row>
     <row r="284">
@@ -37175,7 +37175,7 @@
         <v>0</v>
       </c>
       <c r="AD284" t="n">
-        <v>0.001709090909090909</v>
+        <v>0.2810657611790199</v>
       </c>
     </row>
     <row r="285">
@@ -37299,7 +37299,7 @@
         <v>0</v>
       </c>
       <c r="AD285" t="n">
-        <v>0</v>
+        <v>0.0003947817110371779</v>
       </c>
     </row>
     <row r="286">
@@ -37431,7 +37431,7 @@
         <v>0</v>
       </c>
       <c r="AD286" t="n">
-        <v>0.001709090909090909</v>
+        <v>0.2810657611790199</v>
       </c>
     </row>
     <row r="287">
@@ -37563,7 +37563,7 @@
         <v>0</v>
       </c>
       <c r="AD287" t="n">
-        <v>0.1997123215368839</v>
+        <v>0.04058028808997462</v>
       </c>
     </row>
     <row r="288">
@@ -37695,7 +37695,7 @@
         <v>0</v>
       </c>
       <c r="AD288" t="n">
-        <v>0.0009090909090909091</v>
+        <v>0.2794001467598917</v>
       </c>
     </row>
     <row r="289">
@@ -37827,7 +37827,7 @@
         <v>0</v>
       </c>
       <c r="AD289" t="n">
-        <v>0.1997123215368839</v>
+        <v>0.04058028808997462</v>
       </c>
     </row>
     <row r="290">
@@ -37947,7 +37947,7 @@
         <v>0</v>
       </c>
       <c r="AD290" t="n">
-        <v>0.01370950544348088</v>
+        <v>0.004647607412998951</v>
       </c>
     </row>
     <row r="291">
@@ -38079,7 +38079,7 @@
         <v>0</v>
       </c>
       <c r="AD291" t="n">
-        <v>0</v>
+        <v>0.0006867637385245953</v>
       </c>
     </row>
     <row r="292">
@@ -38211,7 +38211,7 @@
         <v>0</v>
       </c>
       <c r="AD292" t="n">
-        <v>0.2019278083169894</v>
+        <v>0.04311693113864393</v>
       </c>
     </row>
     <row r="293">
@@ -38343,7 +38343,7 @@
         <v>0</v>
       </c>
       <c r="AD293" t="n">
-        <v>0.001709090909090909</v>
+        <v>0.2810657611790199</v>
       </c>
     </row>
     <row r="294">
@@ -38475,7 +38475,7 @@
         <v>0</v>
       </c>
       <c r="AD294" t="n">
-        <v>0.001709090909090909</v>
+        <v>0.2810657611790199</v>
       </c>
     </row>
     <row r="295">
@@ -38607,7 +38607,7 @@
         <v>0</v>
       </c>
       <c r="AD295" t="n">
-        <v>0</v>
+        <v>0.0007042947830826669</v>
       </c>
     </row>
     <row r="296">
@@ -38739,7 +38739,7 @@
         <v>0</v>
       </c>
       <c r="AD296" t="n">
-        <v>0.0169090909090909</v>
+        <v>0.2767814687911417</v>
       </c>
     </row>
     <row r="297">
@@ -38867,7 +38867,7 @@
         <v>0</v>
       </c>
       <c r="AD297" t="n">
-        <v>0</v>
+        <v>0.000682395711133849</v>
       </c>
     </row>
     <row r="298">
@@ -38999,7 +38999,7 @@
         <v>0</v>
       </c>
       <c r="AD298" t="n">
-        <v>0.2219343814731979</v>
+        <v>0.03077157816505785</v>
       </c>
     </row>
     <row r="299">
@@ -39131,7 +39131,7 @@
         <v>0</v>
       </c>
       <c r="AD299" t="n">
-        <v>0.001709090909090909</v>
+        <v>0.2887213167345755</v>
       </c>
     </row>
     <row r="300">
@@ -39263,7 +39263,7 @@
         <v>0</v>
       </c>
       <c r="AD300" t="n">
-        <v>0.5546261241985876</v>
+        <v>0.06607330919675396</v>
       </c>
     </row>
     <row r="301">
@@ -39391,7 +39391,7 @@
         <v>0</v>
       </c>
       <c r="AD301" t="n">
-        <v>0</v>
+        <v>0.02862700496949256</v>
       </c>
     </row>
     <row r="302">
@@ -39519,7 +39519,7 @@
         <v>0</v>
       </c>
       <c r="AD302" t="n">
-        <v>0</v>
+        <v>0.008830006292099443</v>
       </c>
     </row>
     <row r="303">
@@ -39647,7 +39647,7 @@
         <v>0</v>
       </c>
       <c r="AD303" t="n">
-        <v>0</v>
+        <v>0.008830006292099443</v>
       </c>
     </row>
     <row r="304">
@@ -39775,7 +39775,7 @@
         <v>0</v>
       </c>
       <c r="AD304" t="n">
-        <v>0.01442261666781791</v>
+        <v>8.760523992955368e-05</v>
       </c>
     </row>
     <row r="305">
@@ -39903,7 +39903,7 @@
         <v>0</v>
       </c>
       <c r="AD305" t="n">
-        <v>0.5496799403738104</v>
+        <v>0.0140170095154663</v>
       </c>
     </row>
     <row r="306">
@@ -40031,7 +40031,7 @@
         <v>0</v>
       </c>
       <c r="AD306" t="n">
-        <v>0</v>
+        <v>0.007205825612293201</v>
       </c>
     </row>
     <row r="307">
@@ -40159,7 +40159,7 @@
         <v>0</v>
       </c>
       <c r="AD307" t="n">
-        <v>0</v>
+        <v>0.0003958818920880084</v>
       </c>
     </row>
     <row r="308">
@@ -40287,7 +40287,7 @@
         <v>0</v>
       </c>
       <c r="AD308" t="n">
-        <v>0.01442261666781791</v>
+        <v>8.760523992955368e-05</v>
       </c>
     </row>
     <row r="309">
@@ -40411,7 +40411,7 @@
         <v>0</v>
       </c>
       <c r="AD309" t="n">
-        <v>0</v>
+        <v>0.0001727071655730907</v>
       </c>
     </row>
     <row r="310">
@@ -40539,7 +40539,7 @@
         <v>0</v>
       </c>
       <c r="AD310" t="n">
-        <v>0.01442261666781791</v>
+        <v>8.760523992955368e-05</v>
       </c>
     </row>
     <row r="311">
@@ -40667,7 +40667,7 @@
         <v>0</v>
       </c>
       <c r="AD311" t="n">
-        <v>0.5995600000000001</v>
+        <v>0.04253337315182993</v>
       </c>
     </row>
     <row r="312">
@@ -40795,7 +40795,7 @@
         <v>0</v>
       </c>
       <c r="AD312" t="n">
-        <v>0</v>
+        <v>0.008830006292099443</v>
       </c>
     </row>
     <row r="313">
@@ -40923,7 +40923,7 @@
         <v>0</v>
       </c>
       <c r="AD313" t="n">
-        <v>0.5424206811145511</v>
+        <v>0.04169206638566636</v>
       </c>
     </row>
     <row r="314">
@@ -41043,7 +41043,7 @@
         <v>0</v>
       </c>
       <c r="AD314" t="n">
-        <v>0.5464074074074073</v>
+        <v>0.0006027364741052688</v>
       </c>
     </row>
     <row r="315">
@@ -41171,7 +41171,7 @@
         <v>0</v>
       </c>
       <c r="AD315" t="n">
-        <v>0.007349006944208182</v>
+        <v>7.775302318078523e-05</v>
       </c>
     </row>
     <row r="316">
@@ -41299,7 +41299,7 @@
         <v>0</v>
       </c>
       <c r="AD316" t="n">
-        <v>0</v>
+        <v>0.01627419853708312</v>
       </c>
     </row>
     <row r="317">
@@ -41427,7 +41427,7 @@
         <v>0</v>
       </c>
       <c r="AD317" t="n">
-        <v>0.01442261666781791</v>
+        <v>8.760523992955368e-05</v>
       </c>
     </row>
     <row r="318">
@@ -41555,7 +41555,7 @@
         <v>0</v>
       </c>
       <c r="AD318" t="n">
-        <v>0.01442261666781791</v>
+        <v>8.760523992955368e-05</v>
       </c>
     </row>
     <row r="319">
@@ -41683,7 +41683,7 @@
         <v>0</v>
       </c>
       <c r="AD319" t="n">
-        <v>0.007349006944208182</v>
+        <v>7.775302318078523e-05</v>
       </c>
     </row>
     <row r="320">
@@ -41811,7 +41811,7 @@
         <v>0</v>
       </c>
       <c r="AD320" t="n">
-        <v>0.5766638113415522</v>
+        <v>0.01005998472207787</v>
       </c>
     </row>
     <row r="321">
@@ -41939,7 +41939,7 @@
         <v>0</v>
       </c>
       <c r="AD321" t="n">
-        <v>0</v>
+        <v>0.000662922041481099</v>
       </c>
     </row>
     <row r="322">
@@ -42067,7 +42067,7 @@
         <v>0</v>
       </c>
       <c r="AD322" t="n">
-        <v>0.01023629930441076</v>
+        <v>5.658062080449666e-05</v>
       </c>
     </row>
     <row r="323">
@@ -42195,7 +42195,7 @@
         <v>0</v>
       </c>
       <c r="AD323" t="n">
-        <v>0.01442261666781791</v>
+        <v>8.788280235115565e-05</v>
       </c>
     </row>
     <row r="324">
@@ -42323,7 +42323,7 @@
         <v>0</v>
       </c>
       <c r="AD324" t="n">
-        <v>0.003961737677527151</v>
+        <v>3.982323376525265e-05</v>
       </c>
     </row>
     <row r="325">
@@ -42451,7 +42451,7 @@
         <v>0</v>
       </c>
       <c r="AD325" t="n">
-        <v>0</v>
+        <v>0.00368883988291668</v>
       </c>
     </row>
     <row r="326">
@@ -42579,7 +42579,7 @@
         <v>0</v>
       </c>
       <c r="AD326" t="n">
-        <v>0.003961737677527151</v>
+        <v>0.01725516104693885</v>
       </c>
     </row>
     <row r="327">
@@ -42699,7 +42699,7 @@
         <v>0</v>
       </c>
       <c r="AD327" t="n">
-        <v>0.00985191166624794</v>
+        <v>0.002477884734151419</v>
       </c>
     </row>
     <row r="328">
@@ -42819,7 +42819,7 @@
         <v>0</v>
       </c>
       <c r="AD328" t="n">
-        <v>0.00985191166624794</v>
+        <v>0.002477884734151419</v>
       </c>
     </row>
     <row r="329">
@@ -42939,7 +42939,7 @@
         <v>0</v>
       </c>
       <c r="AD329" t="n">
-        <v>0.006045337019575919</v>
+        <v>0.0001825593823218591</v>
       </c>
     </row>
     <row r="330">
@@ -43059,7 +43059,7 @@
         <v>0</v>
       </c>
       <c r="AD330" t="n">
-        <v>0.01670749225741867</v>
+        <v>0.003466361169914182</v>
       </c>
     </row>
     <row r="331">
@@ -43179,7 +43179,7 @@
         <v>0</v>
       </c>
       <c r="AD331" t="n">
-        <v>0.01847760109834861</v>
+        <v>0.003209349862500321</v>
       </c>
     </row>
     <row r="332">
@@ -43299,7 +43299,7 @@
         <v>0</v>
       </c>
       <c r="AD332" t="n">
-        <v>0.012</v>
+        <v>0.0001682127835506188</v>
       </c>
     </row>
     <row r="333">
@@ -43419,7 +43419,7 @@
         <v>0</v>
       </c>
       <c r="AD333" t="n">
-        <v>0.006045337019575919</v>
+        <v>0.0001825593823218591</v>
       </c>
     </row>
     <row r="334">
@@ -43539,7 +43539,7 @@
         <v>0</v>
       </c>
       <c r="AD334" t="n">
-        <v>0</v>
+        <v>0.000207286203373778</v>
       </c>
     </row>
     <row r="335">
@@ -43659,7 +43659,7 @@
         <v>0</v>
       </c>
       <c r="AD335" t="n">
-        <v>0.006045337019575919</v>
+        <v>0.0001825593823218591</v>
       </c>
     </row>
     <row r="336">
@@ -43779,7 +43779,7 @@
         <v>0</v>
       </c>
       <c r="AD336" t="n">
-        <v>0.01670749225741867</v>
+        <v>0.003466361169914182</v>
       </c>
     </row>
     <row r="337">
@@ -43899,7 +43899,7 @@
         <v>0</v>
       </c>
       <c r="AD337" t="n">
-        <v>0.00985191166624794</v>
+        <v>0.002477884734151419</v>
       </c>
     </row>
     <row r="338">
@@ -44019,7 +44019,7 @@
         <v>0</v>
       </c>
       <c r="AD338" t="n">
-        <v>0.01670749225741867</v>
+        <v>0.003466361169914182</v>
       </c>
     </row>
     <row r="339">
@@ -44139,7 +44139,7 @@
         <v>0</v>
       </c>
       <c r="AD339" t="n">
-        <v>0.056</v>
+        <v>0.0003721066949228964</v>
       </c>
     </row>
     <row r="340">
@@ -44259,7 +44259,7 @@
         <v>0</v>
       </c>
       <c r="AD340" t="n">
-        <v>0</v>
+        <v>0.0001727071655730907</v>
       </c>
     </row>
     <row r="341">
@@ -44379,7 +44379,7 @@
         <v>0</v>
       </c>
       <c r="AD341" t="n">
-        <v>0.01847760109834861</v>
+        <v>0.003209349862500321</v>
       </c>
     </row>
     <row r="342">
@@ -44499,7 +44499,7 @@
         <v>0</v>
       </c>
       <c r="AD342" t="n">
-        <v>0.006045337019575919</v>
+        <v>0.0001825593823218591</v>
       </c>
     </row>
     <row r="343">
@@ -44619,7 +44619,7 @@
         <v>0</v>
       </c>
       <c r="AD343" t="n">
-        <v>0.006045337019575919</v>
+        <v>0.0001944819315173126</v>
       </c>
     </row>
     <row r="344">
@@ -44739,7 +44739,7 @@
         <v>0</v>
       </c>
       <c r="AD344" t="n">
-        <v>0</v>
+        <v>0.0001846297147685442</v>
       </c>
     </row>
     <row r="345">
@@ -44859,7 +44859,7 @@
         <v>0</v>
       </c>
       <c r="AD345" t="n">
-        <v>0.01390713933056776</v>
+        <v>0.002581808390981449</v>
       </c>
     </row>
     <row r="346">
@@ -44979,7 +44979,7 @@
         <v>0</v>
       </c>
       <c r="AD346" t="n">
-        <v>0</v>
+        <v>0.0004221592282414879</v>
       </c>
     </row>
     <row r="347">
@@ -45099,7 +45099,7 @@
         <v>0</v>
       </c>
       <c r="AD347" t="n">
-        <v>0.01931174561711077</v>
+        <v>0.008690754678543354</v>
       </c>
     </row>
     <row r="348">
@@ -45219,7 +45219,7 @@
         <v>0</v>
       </c>
       <c r="AD348" t="n">
-        <v>0.006045337019575919</v>
+        <v>0.0001823155916891554</v>
       </c>
     </row>
     <row r="349">
@@ -45339,7 +45339,7 @@
         <v>0</v>
       </c>
       <c r="AD349" t="n">
-        <v>0.01725628095138607</v>
+        <v>0.01004618135625669</v>
       </c>
     </row>
     <row r="350">
@@ -45459,7 +45459,7 @@
         <v>0</v>
       </c>
       <c r="AD350" t="n">
-        <v>0</v>
+        <v>0.0006539442046474869</v>
       </c>
     </row>
     <row r="351">
@@ -45579,7 +45579,7 @@
         <v>0</v>
       </c>
       <c r="AD351" t="n">
-        <v>0.01725628095138607</v>
+        <v>0.00440079755370446</v>
       </c>
     </row>
     <row r="352">
@@ -45699,7 +45699,7 @@
         <v>0</v>
       </c>
       <c r="AD352" t="n">
-        <v>0</v>
+        <v>0.007008974125111484</v>
       </c>
     </row>
     <row r="353">
@@ -45819,7 +45819,7 @@
         <v>0</v>
       </c>
       <c r="AD353" t="n">
-        <v>0.00985191166624794</v>
+        <v>0.002477884734151419</v>
       </c>
     </row>
     <row r="354">
@@ -45939,7 +45939,7 @@
         <v>0</v>
       </c>
       <c r="AD354" t="n">
-        <v>0.00985191166624794</v>
+        <v>0.002477884734151419</v>
       </c>
     </row>
     <row r="355">
@@ -46059,7 +46059,7 @@
         <v>0</v>
       </c>
       <c r="AD355" t="n">
-        <v>0.006045337019575919</v>
+        <v>0.0001825593823218591</v>
       </c>
     </row>
     <row r="356">
@@ -46179,7 +46179,7 @@
         <v>0</v>
       </c>
       <c r="AD356" t="n">
-        <v>0.01670749225741867</v>
+        <v>0.003466361169914182</v>
       </c>
     </row>
     <row r="357">
@@ -46299,7 +46299,7 @@
         <v>0</v>
       </c>
       <c r="AD357" t="n">
-        <v>0.01847760109834861</v>
+        <v>0.003209349862500321</v>
       </c>
     </row>
     <row r="358">
@@ -46419,7 +46419,7 @@
         <v>0</v>
       </c>
       <c r="AD358" t="n">
-        <v>0</v>
+        <v>0.0001727071655730907</v>
       </c>
     </row>
     <row r="359">
@@ -46539,7 +46539,7 @@
         <v>0</v>
       </c>
       <c r="AD359" t="n">
-        <v>0.006045337019575919</v>
+        <v>0.0001825593823218591</v>
       </c>
     </row>
     <row r="360">
@@ -46659,7 +46659,7 @@
         <v>0</v>
       </c>
       <c r="AD360" t="n">
-        <v>0</v>
+        <v>0.000207286203373778</v>
       </c>
     </row>
     <row r="361">
@@ -46779,7 +46779,7 @@
         <v>0</v>
       </c>
       <c r="AD361" t="n">
-        <v>0.006045337019575919</v>
+        <v>0.0001825593823218591</v>
       </c>
     </row>
     <row r="362">
@@ -46899,7 +46899,7 @@
         <v>0</v>
       </c>
       <c r="AD362" t="n">
-        <v>0.01670749225741867</v>
+        <v>0.003466361169914182</v>
       </c>
     </row>
     <row r="363">
@@ -47019,7 +47019,7 @@
         <v>0</v>
       </c>
       <c r="AD363" t="n">
-        <v>0.00985191166624794</v>
+        <v>0.002477884734151419</v>
       </c>
     </row>
     <row r="364">
@@ -47139,7 +47139,7 @@
         <v>0</v>
       </c>
       <c r="AD364" t="n">
-        <v>0.01670749225741867</v>
+        <v>0.003466361169914182</v>
       </c>
     </row>
     <row r="365">
@@ -47259,7 +47259,7 @@
         <v>0</v>
       </c>
       <c r="AD365" t="n">
-        <v>0</v>
+        <v>0.0003810063632889807</v>
       </c>
     </row>
     <row r="366">
@@ -47379,7 +47379,7 @@
         <v>0</v>
       </c>
       <c r="AD366" t="n">
-        <v>0</v>
+        <v>0.0001727071655730907</v>
       </c>
     </row>
     <row r="367">
@@ -47499,7 +47499,7 @@
         <v>0</v>
       </c>
       <c r="AD367" t="n">
-        <v>0.01847760109834861</v>
+        <v>0.003209349862500321</v>
       </c>
     </row>
     <row r="368">
@@ -47619,7 +47619,7 @@
         <v>0</v>
       </c>
       <c r="AD368" t="n">
-        <v>0.006045337019575919</v>
+        <v>0.0001825593823218591</v>
       </c>
     </row>
     <row r="369">
@@ -47739,7 +47739,7 @@
         <v>0</v>
       </c>
       <c r="AD369" t="n">
-        <v>0.006045337019575919</v>
+        <v>0.0001830649434947611</v>
       </c>
     </row>
     <row r="370">
@@ -47859,7 +47859,7 @@
         <v>0</v>
       </c>
       <c r="AD370" t="n">
-        <v>0</v>
+        <v>0.0001846297147685442</v>
       </c>
     </row>
     <row r="371">
@@ -47979,7 +47979,7 @@
         <v>0</v>
       </c>
       <c r="AD371" t="n">
-        <v>0.01390713933056776</v>
+        <v>0.002581808390981449</v>
       </c>
     </row>
     <row r="372">
@@ -48099,7 +48099,7 @@
         <v>0</v>
       </c>
       <c r="AD372" t="n">
-        <v>0</v>
+        <v>0.0004221592282414879</v>
       </c>
     </row>
     <row r="373">
@@ -48219,7 +48219,7 @@
         <v>0</v>
       </c>
       <c r="AD373" t="n">
-        <v>0.01931174561711077</v>
+        <v>0.008690754678543354</v>
       </c>
     </row>
     <row r="374">
@@ -48339,7 +48339,7 @@
         <v>0</v>
       </c>
       <c r="AD374" t="n">
-        <v>0.6008596012388696</v>
+        <v>0.03013795783542213</v>
       </c>
     </row>
     <row r="375">
@@ -48459,7 +48459,7 @@
         <v>0</v>
       </c>
       <c r="AD375" t="n">
-        <v>0.01725628095138607</v>
+        <v>0.009777273793231482</v>
       </c>
     </row>
     <row r="376">
@@ -48579,7 +48579,7 @@
         <v>0</v>
       </c>
       <c r="AD376" t="n">
-        <v>0</v>
+        <v>0.0002768750601997017</v>
       </c>
     </row>
     <row r="377">
@@ -48699,7 +48699,7 @@
         <v>0</v>
       </c>
       <c r="AD377" t="n">
-        <v>0.01725628095138607</v>
+        <v>0.004365856064217515</v>
       </c>
     </row>
     <row r="378">
@@ -48819,7 +48819,7 @@
         <v>0</v>
       </c>
       <c r="AD378" t="n">
-        <v>0</v>
+        <v>0.00195002675669043</v>
       </c>
     </row>
     <row r="379">
@@ -48939,7 +48939,7 @@
         <v>0</v>
       </c>
       <c r="AD379" t="n">
-        <v>0</v>
+        <v>0.0007780435979212682</v>
       </c>
     </row>
     <row r="380">
@@ -49059,7 +49059,7 @@
         <v>0</v>
       </c>
       <c r="AD380" t="n">
-        <v>0.00985191166624794</v>
+        <v>0.002477884734151419</v>
       </c>
     </row>
     <row r="381">
@@ -49179,7 +49179,7 @@
         <v>0</v>
       </c>
       <c r="AD381" t="n">
-        <v>0.04078488473832154</v>
+        <v>0.00237322962833186</v>
       </c>
     </row>
     <row r="382">
@@ -49299,7 +49299,7 @@
         <v>0</v>
       </c>
       <c r="AD382" t="n">
-        <v>0.006045337019575919</v>
+        <v>0.0001825593823218591</v>
       </c>
     </row>
     <row r="383">
@@ -49419,7 +49419,7 @@
         <v>0</v>
       </c>
       <c r="AD383" t="n">
-        <v>0.01670749225741867</v>
+        <v>0.003466361169914182</v>
       </c>
     </row>
     <row r="384">
@@ -49539,7 +49539,7 @@
         <v>0</v>
       </c>
       <c r="AD384" t="n">
-        <v>0.04890451655488166</v>
+        <v>0.003150500223038389</v>
       </c>
     </row>
     <row r="385">
@@ -49659,7 +49659,7 @@
         <v>0</v>
       </c>
       <c r="AD385" t="n">
-        <v>0</v>
+        <v>0.0001727071655730907</v>
       </c>
     </row>
     <row r="386">
@@ -49779,7 +49779,7 @@
         <v>0</v>
       </c>
       <c r="AD386" t="n">
-        <v>0.02244525928971505</v>
+        <v>0.0001780650002993872</v>
       </c>
     </row>
     <row r="387">
@@ -49899,7 +49899,7 @@
         <v>0</v>
       </c>
       <c r="AD387" t="n">
-        <v>0</v>
+        <v>0.000207286203373778</v>
       </c>
     </row>
     <row r="388">
@@ -50019,7 +50019,7 @@
         <v>0</v>
       </c>
       <c r="AD388" t="n">
-        <v>0.006045337019575919</v>
+        <v>0.0001825593823218591</v>
       </c>
     </row>
     <row r="389">
@@ -50139,7 +50139,7 @@
         <v>0</v>
       </c>
       <c r="AD389" t="n">
-        <v>0.01670749225741867</v>
+        <v>0.003466361169914182</v>
       </c>
     </row>
     <row r="390">
@@ -50259,7 +50259,7 @@
         <v>0</v>
       </c>
       <c r="AD390" t="n">
-        <v>0.00985191166624794</v>
+        <v>0.002477884734151419</v>
       </c>
     </row>
     <row r="391">
@@ -50379,7 +50379,7 @@
         <v>0</v>
       </c>
       <c r="AD391" t="n">
-        <v>0.01670749225741867</v>
+        <v>0.003466361169914182</v>
       </c>
     </row>
     <row r="392">
@@ -50499,7 +50499,7 @@
         <v>0</v>
       </c>
       <c r="AD392" t="n">
-        <v>0</v>
+        <v>0.0003810063632889807</v>
       </c>
     </row>
     <row r="393">
@@ -50619,7 +50619,7 @@
         <v>0</v>
       </c>
       <c r="AD393" t="n">
-        <v>0</v>
+        <v>0.0001727071655730907</v>
       </c>
     </row>
     <row r="394">
@@ -50739,7 +50739,7 @@
         <v>0</v>
       </c>
       <c r="AD394" t="n">
-        <v>0.01847760109834861</v>
+        <v>0.003209349862500321</v>
       </c>
     </row>
     <row r="395">
@@ -50859,7 +50859,7 @@
         <v>0</v>
       </c>
       <c r="AD395" t="n">
-        <v>0.02244525928971505</v>
+        <v>0.0001780650002993872</v>
       </c>
     </row>
     <row r="396">
@@ -50979,7 +50979,7 @@
         <v>0</v>
       </c>
       <c r="AD396" t="n">
-        <v>0.006045337019575919</v>
+        <v>0.0001830649434947611</v>
       </c>
     </row>
     <row r="397">
@@ -51099,7 +51099,7 @@
         <v>0</v>
       </c>
       <c r="AD397" t="n">
-        <v>0</v>
+        <v>0.0001732127267459926</v>
       </c>
     </row>
     <row r="398">
@@ -51219,7 +51219,7 @@
         <v>0</v>
       </c>
       <c r="AD398" t="n">
-        <v>0.01390713933056776</v>
+        <v>0.002581808390981449</v>
       </c>
     </row>
     <row r="399">
@@ -51339,7 +51339,7 @@
         <v>0</v>
       </c>
       <c r="AD399" t="n">
-        <v>0</v>
+        <v>0.0004221592282414879</v>
       </c>
     </row>
     <row r="400">
@@ -51459,7 +51459,7 @@
         <v>0</v>
       </c>
       <c r="AD400" t="n">
-        <v>0.01931174561711077</v>
+        <v>0.008690754678543354</v>
       </c>
     </row>
     <row r="401">
@@ -51579,7 +51579,7 @@
         <v>0</v>
       </c>
       <c r="AD401" t="n">
-        <v>0.006045337019575919</v>
+        <v>0.003046140234383144</v>
       </c>
     </row>
     <row r="402">
@@ -51699,7 +51699,7 @@
         <v>0</v>
       </c>
       <c r="AD402" t="n">
-        <v>0.01725628095138607</v>
+        <v>0.008690754678543354</v>
       </c>
     </row>
     <row r="403">
@@ -51819,7 +51819,7 @@
         <v>0</v>
       </c>
       <c r="AD403" t="n">
-        <v>0</v>
+        <v>0.001383182965886248</v>
       </c>
     </row>
     <row r="404">
@@ -51939,7 +51939,7 @@
         <v>0</v>
       </c>
       <c r="AD404" t="n">
-        <v>0.01725628095138607</v>
+        <v>0.0063309043492658</v>
       </c>
     </row>
     <row r="405">
@@ -52059,7 +52059,7 @@
         <v>0</v>
       </c>
       <c r="AD405" t="n">
-        <v>0</v>
+        <v>0.0006500980508013331</v>
       </c>
     </row>
     <row r="406">
@@ -52179,7 +52179,7 @@
         <v>0</v>
       </c>
       <c r="AD406" t="n">
-        <v>0</v>
+        <v>0.0009368229644836019</v>
       </c>
     </row>
     <row r="407">
@@ -52299,7 +52299,7 @@
         <v>0</v>
       </c>
       <c r="AD407" t="n">
-        <v>0</v>
+        <v>0.0008453962167092406</v>
       </c>
     </row>
     <row r="408">
@@ -52423,7 +52423,7 @@
         <v>0</v>
       </c>
       <c r="AD408" t="n">
-        <v>0</v>
+        <v>0.001529605314041013</v>
       </c>
     </row>
     <row r="409">
@@ -52547,7 +52547,7 @@
         <v>0</v>
       </c>
       <c r="AD409" t="n">
-        <v>0</v>
+        <v>0.001496378779650025</v>
       </c>
     </row>
     <row r="410">
@@ -52671,7 +52671,7 @@
         <v>0</v>
       </c>
       <c r="AD410" t="n">
-        <v>0</v>
+        <v>1.663231305695467e-05</v>
       </c>
     </row>
     <row r="411">
@@ -52795,7 +52795,7 @@
         <v>0</v>
       </c>
       <c r="AD411" t="n">
-        <v>0</v>
+        <v>0.002577010321232347</v>
       </c>
     </row>
     <row r="412">
@@ -52919,7 +52919,7 @@
         <v>0</v>
       </c>
       <c r="AD412" t="n">
-        <v>0</v>
+        <v>0.002261149374356555</v>
       </c>
     </row>
     <row r="413">
@@ -53043,7 +53043,7 @@
         <v>0</v>
       </c>
       <c r="AD413" t="n">
-        <v>0</v>
+        <v>0.0001727071655730907</v>
       </c>
     </row>
     <row r="414">
@@ -53167,7 +53167,7 @@
         <v>0</v>
       </c>
       <c r="AD414" t="n">
-        <v>0</v>
+        <v>1.213793103448276e-05</v>
       </c>
     </row>
     <row r="415">
@@ -53291,7 +53291,7 @@
         <v>0</v>
       </c>
       <c r="AD415" t="n">
-        <v>0</v>
+        <v>0.000207286203373778</v>
       </c>
     </row>
     <row r="416">
@@ -53415,7 +53415,7 @@
         <v>0</v>
       </c>
       <c r="AD416" t="n">
-        <v>0</v>
+        <v>1.663231305695467e-05</v>
       </c>
     </row>
     <row r="417">
@@ -53539,7 +53539,7 @@
         <v>0</v>
       </c>
       <c r="AD417" t="n">
-        <v>0</v>
+        <v>0.002577010321232347</v>
       </c>
     </row>
     <row r="418">
@@ -53663,7 +53663,7 @@
         <v>0</v>
       </c>
       <c r="AD418" t="n">
-        <v>0</v>
+        <v>0.001529605314041013</v>
       </c>
     </row>
     <row r="419">
@@ -53787,7 +53787,7 @@
         <v>0</v>
       </c>
       <c r="AD419" t="n">
-        <v>0</v>
+        <v>0.002577010321232347</v>
       </c>
     </row>
     <row r="420">
@@ -53907,7 +53907,7 @@
         <v>0</v>
       </c>
       <c r="AD420" t="n">
-        <v>0</v>
+        <v>0.0003810063632889807</v>
       </c>
     </row>
     <row r="421">
@@ -54031,7 +54031,7 @@
         <v>0</v>
       </c>
       <c r="AD421" t="n">
-        <v>0</v>
+        <v>6.780096308186197e-06</v>
       </c>
     </row>
     <row r="422">
@@ -54155,7 +54155,7 @@
         <v>0</v>
       </c>
       <c r="AD422" t="n">
-        <v>0</v>
+        <v>0.002319999013818487</v>
       </c>
     </row>
     <row r="423">
@@ -54279,7 +54279,7 @@
         <v>0</v>
       </c>
       <c r="AD423" t="n">
-        <v>0</v>
+        <v>1.213793103448276e-05</v>
       </c>
     </row>
     <row r="424">
@@ -54403,7 +54403,7 @@
         <v>0</v>
       </c>
       <c r="AD424" t="n">
-        <v>0</v>
+        <v>0.008016632313056956</v>
       </c>
     </row>
     <row r="425">
@@ -54527,7 +54527,7 @@
         <v>0</v>
       </c>
       <c r="AD425" t="n">
-        <v>0</v>
+        <v>7.285657481088117e-06</v>
       </c>
     </row>
     <row r="426">
@@ -54651,7 +54651,7 @@
         <v>0</v>
       </c>
       <c r="AD426" t="n">
-        <v>0</v>
+        <v>0.001624984720567538</v>
       </c>
     </row>
     <row r="427">
@@ -54775,7 +54775,7 @@
         <v>0</v>
       </c>
       <c r="AD427" t="n">
-        <v>0</v>
+        <v>0.0004221592282414879</v>
       </c>
     </row>
     <row r="428">
@@ -54899,7 +54899,7 @@
         <v>0</v>
       </c>
       <c r="AD428" t="n">
-        <v>0</v>
+        <v>0.006593934656023648</v>
       </c>
     </row>
     <row r="429">
@@ -55023,7 +55023,7 @@
         <v>0</v>
       </c>
       <c r="AD429" t="n">
-        <v>0</v>
+        <v>0.0001311189648165107</v>
       </c>
     </row>
     <row r="430">
@@ -55147,7 +55147,7 @@
         <v>0</v>
       </c>
       <c r="AD430" t="n">
-        <v>0</v>
+        <v>0.006593934656023648</v>
       </c>
     </row>
     <row r="431">
@@ -55271,7 +55271,7 @@
         <v>0</v>
       </c>
       <c r="AD431" t="n">
-        <v>0</v>
+        <v>0.0195586714937586</v>
       </c>
     </row>
     <row r="432">
@@ -55395,7 +55395,7 @@
         <v>0</v>
       </c>
       <c r="AD432" t="n">
-        <v>0</v>
+        <v>0.001770089854082611</v>
       </c>
     </row>
     <row r="433">
@@ -55519,7 +55519,7 @@
         <v>0</v>
       </c>
       <c r="AD433" t="n">
-        <v>0</v>
+        <v>0.0002768750601997017</v>
       </c>
     </row>
     <row r="434">
@@ -55639,7 +55639,7 @@
         <v>0</v>
       </c>
       <c r="AD434" t="n">
-        <v>0</v>
+        <v>0.0005643227661904418</v>
       </c>
     </row>
     <row r="435">
@@ -55759,7 +55759,7 @@
         <v>0</v>
       </c>
       <c r="AD435" t="n">
-        <v>0</v>
+        <v>0.0005764535096698223</v>
       </c>
     </row>
     <row r="436">
@@ -55879,7 +55879,7 @@
         <v>0</v>
       </c>
       <c r="AD436" t="n">
-        <v>0</v>
+        <v>0.8872333333333333</v>
       </c>
     </row>
     <row r="437">
@@ -56011,7 +56011,7 @@
         <v>0</v>
       </c>
       <c r="AD437" t="n">
-        <v>0.08143522606343538</v>
+        <v>0.01200121905910544</v>
       </c>
     </row>
     <row r="438">
@@ -56143,7 +56143,7 @@
         <v>0</v>
       </c>
       <c r="AD438" t="n">
-        <v>0.08143522606343538</v>
+        <v>0.01200121905910544</v>
       </c>
     </row>
     <row r="439">
@@ -56275,7 +56275,7 @@
         <v>0</v>
       </c>
       <c r="AD439" t="n">
-        <v>0.08013116833372376</v>
+        <v>0.0003299640887822251</v>
       </c>
     </row>
     <row r="440">
@@ -56407,7 +56407,7 @@
         <v>0</v>
       </c>
       <c r="AD440" t="n">
-        <v>0</v>
+        <v>0.007631520579161047</v>
       </c>
     </row>
     <row r="441">
@@ -56539,7 +56539,7 @@
         <v>0</v>
       </c>
       <c r="AD441" t="n">
-        <v>0</v>
+        <v>0.007534243850838739</v>
       </c>
     </row>
     <row r="442">
@@ -56667,7 +56667,7 @@
         <v>0</v>
       </c>
       <c r="AD442" t="n">
-        <v>0</v>
+        <v>8.132764337738933e-05</v>
       </c>
     </row>
     <row r="443">
@@ -56799,7 +56799,7 @@
         <v>0</v>
       </c>
       <c r="AD443" t="n">
-        <v>0.08013116833372376</v>
+        <v>0.0003299640887822251</v>
       </c>
     </row>
     <row r="444">
@@ -56923,7 +56923,7 @@
         <v>0</v>
       </c>
       <c r="AD444" t="n">
-        <v>0</v>
+        <v>2.306151998578301e-05</v>
       </c>
     </row>
     <row r="445">
@@ -57055,7 +57055,7 @@
         <v>0</v>
       </c>
       <c r="AD445" t="n">
-        <v>0.08013116833372376</v>
+        <v>0.0003299640887822251</v>
       </c>
     </row>
     <row r="446">
@@ -57187,7 +57187,7 @@
         <v>0</v>
       </c>
       <c r="AD446" t="n">
-        <v>0</v>
+        <v>0.007631520579161047</v>
       </c>
     </row>
     <row r="447">
@@ -57319,7 +57319,7 @@
         <v>0</v>
       </c>
       <c r="AD447" t="n">
-        <v>0.1274551545377029</v>
+        <v>0.01142041513669905</v>
       </c>
     </row>
     <row r="448">
@@ -57451,7 +57451,7 @@
         <v>0</v>
       </c>
       <c r="AD448" t="n">
-        <v>0</v>
+        <v>0.007631520579161047</v>
       </c>
     </row>
     <row r="449">
@@ -57571,7 +57571,7 @@
         <v>0</v>
       </c>
       <c r="AD449" t="n">
-        <v>0</v>
+        <v>0.0001299196384654408</v>
       </c>
     </row>
     <row r="450">
@@ -57703,7 +57703,7 @@
         <v>0</v>
       </c>
       <c r="AD450" t="n">
-        <v>0.224</v>
+        <v>0.7650857142857143</v>
       </c>
     </row>
     <row r="451">
@@ -57835,7 +57835,7 @@
         <v>0</v>
       </c>
       <c r="AD451" t="n">
-        <v>0</v>
+        <v>0.007534243850838739</v>
       </c>
     </row>
     <row r="452">
@@ -57967,7 +57967,7 @@
         <v>0</v>
       </c>
       <c r="AD452" t="n">
-        <v>0.08013116833372376</v>
+        <v>0.0003299640887822251</v>
       </c>
     </row>
     <row r="453">
@@ -58099,7 +58099,7 @@
         <v>0</v>
       </c>
       <c r="AD453" t="n">
-        <v>0.08013116833372376</v>
+        <v>0.0003299640887822251</v>
       </c>
     </row>
     <row r="454">
@@ -58231,7 +58231,7 @@
         <v>0</v>
       </c>
       <c r="AD454" t="n">
-        <v>0</v>
+        <v>0.988</v>
       </c>
     </row>
     <row r="455">
@@ -58363,7 +58363,7 @@
         <v>0</v>
       </c>
       <c r="AD455" t="n">
-        <v>0.08289808455570563</v>
+        <v>0.01189493879264398</v>
       </c>
     </row>
     <row r="456">
@@ -58491,7 +58491,7 @@
         <v>0</v>
       </c>
       <c r="AD456" t="n">
-        <v>0.01110724332427119</v>
+        <v>8.132764337738933e-05</v>
       </c>
     </row>
     <row r="457">
@@ -58623,7 +58623,7 @@
         <v>0</v>
       </c>
       <c r="AD457" t="n">
-        <v>0</v>
+        <v>0.0001128914218215322</v>
       </c>
     </row>
     <row r="458">
@@ -58755,7 +58755,7 @@
         <v>0</v>
       </c>
       <c r="AD458" t="n">
-        <v>0.08013116833372376</v>
+        <v>0.0003474951333402967</v>
       </c>
     </row>
     <row r="459">
@@ -58887,7 +58887,7 @@
         <v>0</v>
       </c>
       <c r="AD459" t="n">
-        <v>0</v>
+        <v>6.467423286301072e-05</v>
       </c>
     </row>
     <row r="460">
@@ -59015,7 +59015,7 @@
         <v>0</v>
       </c>
       <c r="AD460" t="n">
-        <v>0.01110724332427119</v>
+        <v>9.885868793546091e-05</v>
       </c>
     </row>
     <row r="461">
@@ -59147,7 +59147,7 @@
         <v>0</v>
       </c>
       <c r="AD461" t="n">
-        <v>0</v>
+        <v>6.467423286301072e-05</v>
       </c>
     </row>
     <row r="462">
@@ -59275,7 +59275,7 @@
         <v>0</v>
       </c>
       <c r="AD462" t="n">
-        <v>0.01110724332427119</v>
+        <v>7.695961598664301e-05</v>
       </c>
     </row>
     <row r="463">
@@ -59395,7 +59395,7 @@
         <v>0</v>
       </c>
       <c r="AD463" t="n">
-        <v>0</v>
+        <v>0.001179100827532379</v>
       </c>
     </row>
     <row r="464">
@@ -59515,7 +59515,7 @@
         <v>0</v>
       </c>
       <c r="AD464" t="n">
-        <v>0</v>
+        <v>0.001595004923436474</v>
       </c>
     </row>
     <row r="465">
@@ -59635,7 +59635,7 @@
         <v>0</v>
       </c>
       <c r="AD465" t="n">
-        <v>0</v>
+        <v>0.009642085368855224</v>
       </c>
     </row>
     <row r="466">
@@ -59759,7 +59759,7 @@
         <v>0</v>
       </c>
       <c r="AD466" t="n">
-        <v>0</v>
+        <v>3.395797038952122e-05</v>
       </c>
     </row>
     <row r="467">
@@ -59891,7 +59891,7 @@
         <v>0</v>
       </c>
       <c r="AD467" t="n">
-        <v>0.002545454545454546</v>
+        <v>0.2692031937464525</v>
       </c>
     </row>
     <row r="468">
@@ -60023,7 +60023,7 @@
         <v>0</v>
       </c>
       <c r="AD468" t="n">
-        <v>0.002545454545454546</v>
+        <v>0.2679221947119396</v>
       </c>
     </row>
     <row r="469">
@@ -60155,7 +60155,7 @@
         <v>0</v>
       </c>
       <c r="AD469" t="n">
-        <v>0.1807118304562619</v>
+        <v>0.04004575210416832</v>
       </c>
     </row>
     <row r="470">
@@ -60287,7 +60287,7 @@
         <v>0</v>
       </c>
       <c r="AD470" t="n">
-        <v>0.1703615196490382</v>
+        <v>0.04379797202349887</v>
       </c>
     </row>
     <row r="471">
@@ -60415,7 +60415,7 @@
         <v>0</v>
       </c>
       <c r="AD471" t="n">
-        <v>0</v>
+        <v>0.0006499285526901985</v>
       </c>
     </row>
     <row r="472">
@@ -60547,7 +60547,7 @@
         <v>0</v>
       </c>
       <c r="AD472" t="n">
-        <v>0.002545454545454546</v>
+        <v>0.2679221947119396</v>
       </c>
     </row>
     <row r="473">
@@ -60671,7 +60671,7 @@
         <v>0</v>
       </c>
       <c r="AD473" t="n">
-        <v>0</v>
+        <v>0.000349907954163421</v>
       </c>
     </row>
     <row r="474">
@@ -60803,7 +60803,7 @@
         <v>0</v>
       </c>
       <c r="AD474" t="n">
-        <v>0.002</v>
+        <v>0.2719221947119397</v>
       </c>
     </row>
     <row r="475">
@@ -60935,7 +60935,7 @@
         <v>0</v>
       </c>
       <c r="AD475" t="n">
-        <v>0.1807118304562619</v>
+        <v>0.04004575210416832</v>
       </c>
     </row>
     <row r="476">
@@ -61067,7 +61067,7 @@
         <v>0</v>
       </c>
       <c r="AD476" t="n">
-        <v>0.002545454545454546</v>
+        <v>0.2692031937464525</v>
       </c>
     </row>
     <row r="477">
@@ -61199,7 +61199,7 @@
         <v>0</v>
       </c>
       <c r="AD477" t="n">
-        <v>0.1807118304562619</v>
+        <v>0.04004575210416832</v>
       </c>
     </row>
     <row r="478">
@@ -61319,7 +61319,7 @@
         <v>0</v>
       </c>
       <c r="AD478" t="n">
-        <v>0.0113808318284253</v>
+        <v>0.0007109144200124362</v>
       </c>
     </row>
     <row r="479">
@@ -61451,7 +61451,7 @@
         <v>0</v>
       </c>
       <c r="AD479" t="n">
-        <v>0</v>
+        <v>0.0006499285526901985</v>
       </c>
     </row>
     <row r="480">
@@ -61583,7 +61583,7 @@
         <v>0</v>
       </c>
       <c r="AD480" t="n">
-        <v>0.5403360683941019</v>
+        <v>0.9386666666666668</v>
       </c>
     </row>
     <row r="481">
@@ -61715,7 +61715,7 @@
         <v>0</v>
       </c>
       <c r="AD481" t="n">
-        <v>0.002545454545454546</v>
+        <v>0.2679221947119396</v>
       </c>
     </row>
     <row r="482">
@@ -61847,7 +61847,7 @@
         <v>0</v>
       </c>
       <c r="AD482" t="n">
-        <v>0.002545454545454546</v>
+        <v>0.2679221947119396</v>
       </c>
     </row>
     <row r="483">
@@ -61979,7 +61979,7 @@
         <v>0</v>
       </c>
       <c r="AD483" t="n">
-        <v>0</v>
+        <v>0.0006499285526901985</v>
       </c>
     </row>
     <row r="484">
@@ -62111,7 +62111,7 @@
         <v>0</v>
       </c>
       <c r="AD484" t="n">
-        <v>0.09184704184704186</v>
+        <v>0.26814523916956</v>
       </c>
     </row>
     <row r="485">
@@ -62239,7 +62239,7 @@
         <v>0</v>
       </c>
       <c r="AD485" t="n">
-        <v>0</v>
+        <v>0.0006208048491145251</v>
       </c>
     </row>
     <row r="486">
@@ -62371,7 +62371,7 @@
         <v>0</v>
       </c>
       <c r="AD486" t="n">
-        <v>0.07960704381650831</v>
+        <v>0.03868071147126966</v>
       </c>
     </row>
     <row r="487">
@@ -62503,7 +62503,7 @@
         <v>0</v>
       </c>
       <c r="AD487" t="n">
-        <v>0.002545454545454546</v>
+        <v>0.2679221947119396</v>
       </c>
     </row>
     <row r="488">
@@ -62635,7 +62635,7 @@
         <v>0</v>
       </c>
       <c r="AD488" t="n">
-        <v>0.07068169629666161</v>
+        <v>0.03951887999309012</v>
       </c>
     </row>
     <row r="489">
@@ -62763,7 +62763,7 @@
         <v>0</v>
       </c>
       <c r="AD489" t="n">
-        <v>0</v>
+        <v>0.0007106924895639632</v>
       </c>
     </row>
     <row r="490">
@@ -62895,7 +62895,7 @@
         <v>0</v>
       </c>
       <c r="AD490" t="n">
-        <v>0.07068169629666161</v>
+        <v>0.03951887999309012</v>
       </c>
     </row>
     <row r="491">
@@ -63023,7 +63023,7 @@
         <v>0</v>
       </c>
       <c r="AD491" t="n">
-        <v>0</v>
+        <v>0.001123505852084972</v>
       </c>
     </row>
     <row r="492">
@@ -63143,7 +63143,7 @@
         <v>0</v>
       </c>
       <c r="AD492" t="n">
-        <v>0.0113808318284253</v>
+        <v>0.004831500874543575</v>
       </c>
     </row>
     <row r="493">
@@ -63263,7 +63263,7 @@
         <v>0</v>
       </c>
       <c r="AD493" t="n">
-        <v>0.0113808318284253</v>
+        <v>0.06351300270498908</v>
       </c>
     </row>
     <row r="494">
@@ -63383,7 +63383,7 @@
         <v>0</v>
       </c>
       <c r="AD494" t="n">
-        <v>0.0113808318284253</v>
+        <v>0.002784423261465489</v>
       </c>
     </row>
     <row r="495">
@@ -63507,7 +63507,7 @@
         <v>0</v>
       </c>
       <c r="AD495" t="n">
-        <v>0</v>
+        <v>0.0003863720716601497</v>
       </c>
     </row>
     <row r="496">
@@ -63639,7 +63639,7 @@
         <v>0</v>
       </c>
       <c r="AD496" t="n">
-        <v>0</v>
+        <v>0.0369641887663279</v>
       </c>
     </row>
     <row r="497">
@@ -63771,7 +63771,7 @@
         <v>0</v>
       </c>
       <c r="AD497" t="n">
-        <v>0.001709090909090909</v>
+        <v>0.2810657611790199</v>
       </c>
     </row>
     <row r="498">
@@ -63903,7 +63903,7 @@
         <v>0</v>
       </c>
       <c r="AD498" t="n">
-        <v>0.1997123215368839</v>
+        <v>0.04058028808997462</v>
       </c>
     </row>
     <row r="499">
@@ -64035,7 +64035,7 @@
         <v>0</v>
       </c>
       <c r="AD499" t="n">
-        <v>0.4280505295062127</v>
+        <v>0.04703462049125723</v>
       </c>
     </row>
     <row r="500">
@@ -64163,7 +64163,7 @@
         <v>0</v>
       </c>
       <c r="AD500" t="n">
-        <v>0</v>
+        <v>0.0006867637385245953</v>
       </c>
     </row>
     <row r="501">
@@ -64295,7 +64295,7 @@
         <v>0</v>
       </c>
       <c r="AD501" t="n">
-        <v>0.001709090909090909</v>
+        <v>0.2810657611790199</v>
       </c>
     </row>
     <row r="502">
@@ -64419,7 +64419,7 @@
         <v>0</v>
       </c>
       <c r="AD502" t="n">
-        <v>0</v>
+        <v>0.0003947817110371779</v>
       </c>
     </row>
     <row r="503">
@@ -64551,7 +64551,7 @@
         <v>0</v>
       </c>
       <c r="AD503" t="n">
-        <v>0.001709090909090909</v>
+        <v>0.2810657611790199</v>
       </c>
     </row>
     <row r="504">
@@ -64683,7 +64683,7 @@
         <v>0</v>
       </c>
       <c r="AD504" t="n">
-        <v>0.3384892910699009</v>
+        <v>0.04555819036076283</v>
       </c>
     </row>
     <row r="505">
@@ -64815,7 +64815,7 @@
         <v>0</v>
       </c>
       <c r="AD505" t="n">
-        <v>0.4344494698823695</v>
+        <v>0.2849943496584424</v>
       </c>
     </row>
     <row r="506">
@@ -64947,7 +64947,7 @@
         <v>0</v>
       </c>
       <c r="AD506" t="n">
-        <v>0.1997123215368839</v>
+        <v>0.04058028808997462</v>
       </c>
     </row>
     <row r="507">
@@ -65067,7 +65067,7 @@
         <v>0</v>
       </c>
       <c r="AD507" t="n">
-        <v>0.01370950544348088</v>
+        <v>0.0006476074129989506</v>
       </c>
     </row>
     <row r="508">
@@ -65199,7 +65199,7 @@
         <v>0</v>
       </c>
       <c r="AD508" t="n">
-        <v>0</v>
+        <v>0.0006867637385245953</v>
       </c>
     </row>
     <row r="509">
@@ -65331,7 +65331,7 @@
         <v>0</v>
       </c>
       <c r="AD509" t="n">
-        <v>0.2019278083169894</v>
+        <v>0.04311693113864393</v>
       </c>
     </row>
     <row r="510">
@@ -65463,7 +65463,7 @@
         <v>0</v>
       </c>
       <c r="AD510" t="n">
-        <v>0.001709090909090909</v>
+        <v>0.2792771968022202</v>
       </c>
     </row>
     <row r="511">
@@ -65595,7 +65595,7 @@
         <v>0</v>
       </c>
       <c r="AD511" t="n">
-        <v>0.001709090909090909</v>
+        <v>0.2810657611790199</v>
       </c>
     </row>
     <row r="512">
@@ -65727,7 +65727,7 @@
         <v>0</v>
       </c>
       <c r="AD512" t="n">
-        <v>0</v>
+        <v>0.0006867637385245953</v>
       </c>
     </row>
     <row r="513">
@@ -65859,7 +65859,7 @@
         <v>0</v>
       </c>
       <c r="AD513" t="n">
-        <v>0.0169090909090909</v>
+        <v>0.2779121265855549</v>
       </c>
     </row>
     <row r="514">
@@ -65987,7 +65987,7 @@
         <v>0</v>
       </c>
       <c r="AD514" t="n">
-        <v>0</v>
+        <v>0.0006867637385245953</v>
       </c>
     </row>
     <row r="515">
@@ -66119,7 +66119,7 @@
         <v>0</v>
       </c>
       <c r="AD515" t="n">
-        <v>0.2219343814731979</v>
+        <v>0.03929525890401851</v>
       </c>
     </row>
     <row r="516">
@@ -66251,7 +66251,7 @@
         <v>0</v>
       </c>
       <c r="AD516" t="n">
-        <v>0.001709090909090909</v>
+        <v>0.2810657611790199</v>
       </c>
     </row>
     <row r="517">
@@ -66383,7 +66383,7 @@
         <v>0</v>
       </c>
       <c r="AD517" t="n">
-        <v>0.21427622886603</v>
+        <v>0.03801974667952329</v>
       </c>
     </row>
     <row r="518">
@@ -66511,7 +66511,7 @@
         <v>0</v>
       </c>
       <c r="AD518" t="n">
-        <v>0</v>
+        <v>0.0007042947830826669</v>
       </c>
     </row>
     <row r="519">
@@ -66643,7 +66643,7 @@
         <v>0</v>
       </c>
       <c r="AD519" t="n">
-        <v>0.21427622886603</v>
+        <v>0.0340197466795233</v>
       </c>
     </row>
     <row r="520">
@@ -66771,7 +66771,7 @@
         <v>0</v>
       </c>
       <c r="AD520" t="n">
-        <v>0</v>
+        <v>0.000682395711133849</v>
       </c>
     </row>
     <row r="521">
@@ -66891,7 +66891,7 @@
         <v>0</v>
       </c>
       <c r="AD521" t="n">
-        <v>0.01370950544348088</v>
+        <v>0.0008968178937358017</v>
       </c>
     </row>
     <row r="522">
@@ -67011,7 +67011,7 @@
         <v>0</v>
       </c>
       <c r="AD522" t="n">
-        <v>0.01370950544348088</v>
+        <v>0.0008968178937358017</v>
       </c>
     </row>
     <row r="523">
@@ -67131,7 +67131,7 @@
         <v>0</v>
       </c>
       <c r="AD523" t="n">
-        <v>0.01317379115776659</v>
+        <v>0.001840576052659491</v>
       </c>
     </row>
     <row r="524">
@@ -67255,7 +67255,7 @@
         <v>0</v>
       </c>
       <c r="AD524" t="n">
-        <v>0</v>
+        <v>0.0003954726502319218</v>
       </c>
     </row>
     <row r="525">
@@ -67387,7 +67387,7 @@
         <v>0</v>
       </c>
       <c r="AD525" t="n">
-        <v>0</v>
+        <v>0.01379243821499344</v>
       </c>
     </row>
     <row r="526">
@@ -67519,7 +67519,7 @@
         <v>0</v>
       </c>
       <c r="AD526" t="n">
-        <v>0.2019278083169894</v>
+        <v>0.04382387130196164</v>
       </c>
     </row>
     <row r="527">
@@ -67643,7 +67643,7 @@
         <v>0</v>
       </c>
       <c r="AD527" t="n">
-        <v>0</v>
+        <v>0.002577010321232347</v>
       </c>
     </row>
     <row r="528">
@@ -67767,7 +67767,7 @@
         <v>0</v>
       </c>
       <c r="AD528" t="n">
-        <v>0</v>
+        <v>0.002261149374356555</v>
       </c>
     </row>
     <row r="529">
@@ -67891,7 +67891,7 @@
         <v>0</v>
       </c>
       <c r="AD529" t="n">
-        <v>0</v>
+        <v>0.0001727071655730907</v>
       </c>
     </row>
     <row r="530">
@@ -68015,7 +68015,7 @@
         <v>0</v>
       </c>
       <c r="AD530" t="n">
-        <v>0</v>
+        <v>1.213793103448276e-05</v>
       </c>
     </row>
     <row r="531">
@@ -68139,7 +68139,7 @@
         <v>0</v>
       </c>
       <c r="AD531" t="n">
-        <v>0</v>
+        <v>0.000207286203373778</v>
       </c>
     </row>
     <row r="532">
@@ -68263,7 +68263,7 @@
         <v>0</v>
       </c>
       <c r="AD532" t="n">
-        <v>0</v>
+        <v>1.663231305695467e-05</v>
       </c>
     </row>
     <row r="533">
@@ -68387,7 +68387,7 @@
         <v>0</v>
       </c>
       <c r="AD533" t="n">
-        <v>0</v>
+        <v>0.002577010321232347</v>
       </c>
     </row>
     <row r="534">
@@ -68511,7 +68511,7 @@
         <v>0</v>
       </c>
       <c r="AD534" t="n">
-        <v>0</v>
+        <v>0.001529605314041013</v>
       </c>
     </row>
     <row r="535">
@@ -68635,7 +68635,7 @@
         <v>0</v>
       </c>
       <c r="AD535" t="n">
-        <v>0</v>
+        <v>0.002577010321232347</v>
       </c>
     </row>
     <row r="536">
@@ -68755,7 +68755,7 @@
         <v>0</v>
       </c>
       <c r="AD536" t="n">
-        <v>0</v>
+        <v>0.0003810063632889807</v>
       </c>
     </row>
     <row r="537">
@@ -68879,7 +68879,7 @@
         <v>0</v>
       </c>
       <c r="AD537" t="n">
-        <v>0</v>
+        <v>6.780096308186197e-06</v>
       </c>
     </row>
     <row r="538">
@@ -69003,7 +69003,7 @@
         <v>0</v>
       </c>
       <c r="AD538" t="n">
-        <v>0</v>
+        <v>0.002319999013818487</v>
       </c>
     </row>
     <row r="539">
@@ -69127,7 +69127,7 @@
         <v>0</v>
       </c>
       <c r="AD539" t="n">
-        <v>0</v>
+        <v>1.213793103448276e-05</v>
       </c>
     </row>
     <row r="540">
@@ -69251,7 +69251,7 @@
         <v>0</v>
       </c>
       <c r="AD540" t="n">
-        <v>0</v>
+        <v>1.663231305695467e-05</v>
       </c>
     </row>
     <row r="541">
@@ -69375,7 +69375,7 @@
         <v>0</v>
       </c>
       <c r="AD541" t="n">
-        <v>0</v>
+        <v>6.780096308186197e-06</v>
       </c>
     </row>
     <row r="542">
@@ -69499,7 +69499,7 @@
         <v>0</v>
       </c>
       <c r="AD542" t="n">
-        <v>0</v>
+        <v>0.001620387019418112</v>
       </c>
     </row>
     <row r="543">
@@ -69623,7 +69623,7 @@
         <v>0</v>
       </c>
       <c r="AD543" t="n">
-        <v>0</v>
+        <v>0.0003957408424594914</v>
       </c>
     </row>
     <row r="544">
@@ -69747,7 +69747,7 @@
         <v>0</v>
       </c>
       <c r="AD544" t="n">
-        <v>0</v>
+        <v>0.006593934656023648</v>
       </c>
     </row>
     <row r="545">
@@ -69871,7 +69871,7 @@
         <v>0</v>
       </c>
       <c r="AD545" t="n">
-        <v>0</v>
+        <v>1.713787422985659e-05</v>
       </c>
     </row>
     <row r="546">
@@ -69995,7 +69995,7 @@
         <v>0</v>
       </c>
       <c r="AD546" t="n">
-        <v>0</v>
+        <v>0.006593934656023648</v>
       </c>
     </row>
     <row r="547">
@@ -70119,7 +70119,7 @@
         <v>0</v>
       </c>
       <c r="AD547" t="n">
-        <v>0</v>
+        <v>0.0004221592282414879</v>
       </c>
     </row>
     <row r="548">
@@ -70243,7 +70243,7 @@
         <v>0</v>
       </c>
       <c r="AD548" t="n">
-        <v>0</v>
+        <v>0.006593934656023648</v>
       </c>
     </row>
     <row r="549">
@@ -70367,7 +70367,7 @@
         <v>0</v>
       </c>
       <c r="AD549" t="n">
-        <v>0</v>
+        <v>0.0005247233308055903</v>
       </c>
     </row>
     <row r="550">
@@ -70487,7 +70487,7 @@
         <v>0</v>
       </c>
       <c r="AD550" t="n">
-        <v>0</v>
+        <v>0.000312811694774737</v>
       </c>
     </row>
     <row r="551">
@@ -70607,7 +70607,7 @@
         <v>0</v>
       </c>
       <c r="AD551" t="n">
-        <v>0</v>
+        <v>0.0002070424127410742</v>
       </c>
     </row>
     <row r="552">
@@ -70727,7 +70727,7 @@
         <v>0</v>
       </c>
       <c r="AD552" t="n">
-        <v>0</v>
+        <v>0.8725666666666667</v>
       </c>
     </row>
     <row r="553">
@@ -70851,7 +70851,7 @@
         <v>0</v>
       </c>
       <c r="AD553" t="n">
-        <v>0</v>
+        <v>0.9675666666666667</v>
       </c>
     </row>
     <row r="554">
@@ -70975,7 +70975,7 @@
         <v>0</v>
       </c>
       <c r="AD554" t="n">
-        <v>0</v>
+        <v>4.250591389768125e-06</v>
       </c>
     </row>
     <row r="555">
@@ -71099,7 +71099,7 @@
         <v>0</v>
       </c>
       <c r="AD555" t="n">
-        <v>0</v>
+        <v>0.006042329288781658</v>
       </c>
     </row>
     <row r="556">
@@ -71223,7 +71223,7 @@
         <v>0</v>
       </c>
       <c r="AD556" t="n">
-        <v>0</v>
+        <v>0.006555055378017138</v>
       </c>
     </row>
     <row r="557">
@@ -71355,7 +71355,7 @@
         <v>0</v>
       </c>
       <c r="AD557" t="n">
-        <v>0.0005</v>
+        <v>0.2405183424576805</v>
       </c>
     </row>
     <row r="558">
@@ -71483,7 +71483,7 @@
         <v>0</v>
       </c>
       <c r="AD558" t="n">
-        <v>0</v>
+        <v>0.0004851041921397406</v>
       </c>
     </row>
     <row r="559">
@@ -71615,7 +71615,7 @@
         <v>0</v>
       </c>
       <c r="AD559" t="n">
-        <v>0.1074249258037932</v>
+        <v>0.03800956624026739</v>
       </c>
     </row>
     <row r="560">
@@ -71739,7 +71739,7 @@
         <v>0</v>
       </c>
       <c r="AD560" t="n">
-        <v>0</v>
+        <v>0.0001814130055933878</v>
       </c>
     </row>
     <row r="561">
@@ -71871,7 +71871,7 @@
         <v>0</v>
       </c>
       <c r="AD561" t="n">
-        <v>0.1074249258037932</v>
+        <v>0.03800956624026739</v>
       </c>
     </row>
     <row r="562">
@@ -72003,7 +72003,7 @@
         <v>0</v>
       </c>
       <c r="AD562" t="n">
-        <v>0.0008809523809523809</v>
+        <v>0.2380343825659395</v>
       </c>
     </row>
     <row r="563">
@@ -72135,7 +72135,7 @@
         <v>0</v>
       </c>
       <c r="AD563" t="n">
-        <v>0.1108438253129464</v>
+        <v>0.0378353979676021</v>
       </c>
     </row>
     <row r="564">
@@ -72267,7 +72267,7 @@
         <v>0</v>
       </c>
       <c r="AD564" t="n">
-        <v>0.004</v>
+        <v>0.2389127327513627</v>
       </c>
     </row>
     <row r="565">
@@ -72387,7 +72387,7 @@
         <v>0</v>
       </c>
       <c r="AD565" t="n">
-        <v>0.00851062270512442</v>
+        <v>0.0002327922078256133</v>
       </c>
     </row>
     <row r="566">
@@ -72519,7 +72519,7 @@
         <v>0</v>
       </c>
       <c r="AD566" t="n">
-        <v>0.02164648447308528</v>
+        <v>0.000862083016123334</v>
       </c>
     </row>
     <row r="567">
@@ -72651,7 +72651,7 @@
         <v>0</v>
       </c>
       <c r="AD567" t="n">
-        <v>0.0005</v>
+        <v>0.2405183424576805</v>
       </c>
     </row>
     <row r="568">
@@ -72783,7 +72783,7 @@
         <v>0</v>
       </c>
       <c r="AD568" t="n">
-        <v>0.1074249258037932</v>
+        <v>0.03800956624026739</v>
       </c>
     </row>
     <row r="569">
@@ -72915,7 +72915,7 @@
         <v>0</v>
       </c>
       <c r="AD569" t="n">
-        <v>0.1074249258037932</v>
+        <v>0.03800956624026739</v>
       </c>
     </row>
     <row r="570">
@@ -73047,7 +73047,7 @@
         <v>0</v>
       </c>
       <c r="AD570" t="n">
-        <v>0.02164648447308528</v>
+        <v>0.000862083016123334</v>
       </c>
     </row>
     <row r="571">
@@ -73179,7 +73179,7 @@
         <v>0</v>
       </c>
       <c r="AD571" t="n">
-        <v>0.1151013753547864</v>
+        <v>0.03276339290043519</v>
       </c>
     </row>
     <row r="572">
@@ -73307,7 +73307,7 @@
         <v>0</v>
       </c>
       <c r="AD572" t="n">
-        <v>0</v>
+        <v>0.0004559804885640671</v>
       </c>
     </row>
     <row r="573">
@@ -73439,7 +73439,7 @@
         <v>0</v>
       </c>
       <c r="AD573" t="n">
-        <v>0.002311111111111111</v>
+        <v>0.2286871919027002</v>
       </c>
     </row>
     <row r="574">
@@ -73571,7 +73571,7 @@
         <v>0</v>
       </c>
       <c r="AD574" t="n">
-        <v>0.1074249258037932</v>
+        <v>0.03800956624026739</v>
       </c>
     </row>
     <row r="575">
@@ -73703,7 +73703,7 @@
         <v>0</v>
       </c>
       <c r="AD575" t="n">
-        <v>0.002311111111111111</v>
+        <v>0.2337800622141462</v>
       </c>
     </row>
     <row r="576">
@@ -73831,7 +73831,7 @@
         <v>0</v>
       </c>
       <c r="AD576" t="n">
-        <v>0</v>
+        <v>0.0005458681290135052</v>
       </c>
     </row>
     <row r="577">
@@ -73963,7 +73963,7 @@
         <v>0</v>
       </c>
       <c r="AD577" t="n">
-        <v>0.002311111111111111</v>
+        <v>0.2337800622141462</v>
       </c>
     </row>
     <row r="578">
@@ -74091,7 +74091,7 @@
         <v>0</v>
       </c>
       <c r="AD578" t="n">
-        <v>0</v>
+        <v>0.0005458681290135052</v>
       </c>
     </row>
     <row r="579">
@@ -74211,7 +74211,7 @@
         <v>0</v>
       </c>
       <c r="AD579" t="n">
-        <v>0.00851062270512442</v>
+        <v>0.0003428988962456043</v>
       </c>
     </row>
     <row r="580">
@@ -74331,7 +74331,7 @@
         <v>0</v>
       </c>
       <c r="AD580" t="n">
-        <v>0.00851062270512442</v>
+        <v>0.0003717288413520057</v>
       </c>
     </row>
     <row r="581">
@@ -74451,7 +74451,7 @@
         <v>0</v>
       </c>
       <c r="AD581" t="n">
-        <v>0.00851062270512442</v>
+        <v>0.0002952837167362587</v>
       </c>
     </row>
     <row r="582">
@@ -74575,7 +74575,7 @@
         <v>0</v>
       </c>
       <c r="AD582" t="n">
-        <v>0</v>
+        <v>0.0001852097183098283</v>
       </c>
     </row>
     <row r="583">
@@ -74707,7 +74707,7 @@
         <v>0</v>
       </c>
       <c r="AD583" t="n">
-        <v>0.02164648447308528</v>
+        <v>0.0008667538986477468</v>
       </c>
     </row>
     <row r="584">
@@ -74839,7 +74839,7 @@
         <v>0</v>
       </c>
       <c r="AD584" t="n">
-        <v>0.0005</v>
+        <v>0.2414668394932842</v>
       </c>
     </row>
     <row r="585">
@@ -74971,7 +74971,7 @@
         <v>0</v>
       </c>
       <c r="AD585" t="n">
-        <v>0.002311111111111111</v>
+        <v>0.5266286750706985</v>
       </c>
     </row>
     <row r="586">
@@ -75095,7 +75095,7 @@
         <v>0</v>
       </c>
       <c r="AD586" t="n">
-        <v>0</v>
+        <v>0.0005933728348108351</v>
       </c>
     </row>
     <row r="587">
@@ -75223,7 +75223,7 @@
         <v>0</v>
       </c>
       <c r="AD587" t="n">
-        <v>0</v>
+        <v>0.0006867637385245953</v>
       </c>
     </row>
     <row r="588">
@@ -75355,7 +75355,7 @@
         <v>0</v>
       </c>
       <c r="AD588" t="n">
-        <v>0.001709090909090909</v>
+        <v>0.2810657611790199</v>
       </c>
     </row>
     <row r="589">
@@ -75479,7 +75479,7 @@
         <v>0</v>
       </c>
       <c r="AD589" t="n">
-        <v>0</v>
+        <v>0.0003947817110371779</v>
       </c>
     </row>
     <row r="590">
@@ -75611,7 +75611,7 @@
         <v>0</v>
       </c>
       <c r="AD590" t="n">
-        <v>0.001709090909090909</v>
+        <v>0.2810657611790199</v>
       </c>
     </row>
     <row r="591">
@@ -75743,7 +75743,7 @@
         <v>0</v>
       </c>
       <c r="AD591" t="n">
-        <v>0.3384892910699009</v>
+        <v>0.04555819036076283</v>
       </c>
     </row>
     <row r="592">
@@ -75875,7 +75875,7 @@
         <v>0</v>
       </c>
       <c r="AD592" t="n">
-        <v>0.4344494698823695</v>
+        <v>0.2849943496584424</v>
       </c>
     </row>
     <row r="593">
@@ -76007,7 +76007,7 @@
         <v>0</v>
       </c>
       <c r="AD593" t="n">
-        <v>0.1997123215368839</v>
+        <v>0.04058028808997462</v>
       </c>
     </row>
     <row r="594">
@@ -76127,7 +76127,7 @@
         <v>0</v>
       </c>
       <c r="AD594" t="n">
-        <v>0.01370950544348088</v>
+        <v>0.0006476074129989506</v>
       </c>
     </row>
     <row r="595">
@@ -76259,7 +76259,7 @@
         <v>0</v>
       </c>
       <c r="AD595" t="n">
-        <v>0</v>
+        <v>0.0006867637385245953</v>
       </c>
     </row>
     <row r="596">
@@ -76391,7 +76391,7 @@
         <v>0</v>
       </c>
       <c r="AD596" t="n">
-        <v>0.2019278083169894</v>
+        <v>0.04311693113864393</v>
       </c>
     </row>
     <row r="597">
@@ -76523,7 +76523,7 @@
         <v>0</v>
       </c>
       <c r="AD597" t="n">
-        <v>0.001709090909090909</v>
+        <v>0.2810657611790199</v>
       </c>
     </row>
     <row r="598">
@@ -76655,7 +76655,7 @@
         <v>0</v>
       </c>
       <c r="AD598" t="n">
-        <v>0.001709090909090909</v>
+        <v>0.2810657611790199</v>
       </c>
     </row>
     <row r="599">
@@ -76787,7 +76787,7 @@
         <v>0</v>
       </c>
       <c r="AD599" t="n">
-        <v>0</v>
+        <v>0.0006867637385245953</v>
       </c>
     </row>
     <row r="600">
@@ -76919,7 +76919,7 @@
         <v>0</v>
       </c>
       <c r="AD600" t="n">
-        <v>0.0169090909090909</v>
+        <v>0.2779121265855549</v>
       </c>
     </row>
     <row r="601">
@@ -77047,7 +77047,7 @@
         <v>0</v>
       </c>
       <c r="AD601" t="n">
-        <v>0</v>
+        <v>0.0006867637385245953</v>
       </c>
     </row>
     <row r="602">
@@ -77179,7 +77179,7 @@
         <v>0</v>
       </c>
       <c r="AD602" t="n">
-        <v>0.2219343814731979</v>
+        <v>0.03929525890401851</v>
       </c>
     </row>
     <row r="603">
@@ -77311,7 +77311,7 @@
         <v>0</v>
       </c>
       <c r="AD603" t="n">
-        <v>0.001709090909090909</v>
+        <v>0.2810657611790199</v>
       </c>
     </row>
     <row r="604">
@@ -77443,7 +77443,7 @@
         <v>0</v>
       </c>
       <c r="AD604" t="n">
-        <v>0.21427622886603</v>
+        <v>0.03801974667952329</v>
       </c>
     </row>
     <row r="605">
@@ -77571,7 +77571,7 @@
         <v>0</v>
       </c>
       <c r="AD605" t="n">
-        <v>0</v>
+        <v>0.0007042947830826669</v>
       </c>
     </row>
     <row r="606">
@@ -77703,7 +77703,7 @@
         <v>0</v>
       </c>
       <c r="AD606" t="n">
-        <v>0.21427622886603</v>
+        <v>0.03801974667952329</v>
       </c>
     </row>
     <row r="607">
@@ -77831,7 +77831,7 @@
         <v>0</v>
       </c>
       <c r="AD607" t="n">
-        <v>0</v>
+        <v>0.0007042947830826669</v>
       </c>
     </row>
     <row r="608">
@@ -77951,7 +77951,7 @@
         <v>0</v>
       </c>
       <c r="AD608" t="n">
-        <v>0.01370950544348088</v>
+        <v>0.0008135526265933836</v>
       </c>
     </row>
     <row r="609">
@@ -78071,7 +78071,7 @@
         <v>0</v>
       </c>
       <c r="AD609" t="n">
-        <v>0.01370950544348088</v>
+        <v>0.0008135526265933836</v>
       </c>
     </row>
     <row r="610">
@@ -78191,7 +78191,7 @@
         <v>0</v>
       </c>
       <c r="AD610" t="n">
-        <v>0.01317379115776659</v>
+        <v>0.0009059646726536933</v>
       </c>
     </row>
     <row r="611">
@@ -78315,7 +78315,7 @@
         <v>0</v>
       </c>
       <c r="AD611" t="n">
-        <v>0</v>
+        <v>0.0005473803849142524</v>
       </c>
     </row>
     <row r="612">
@@ -78447,7 +78447,7 @@
         <v>0</v>
       </c>
       <c r="AD612" t="n">
-        <v>0</v>
+        <v>0.000682395711133849</v>
       </c>
     </row>
     <row r="613">
@@ -78579,7 +78579,7 @@
         <v>0</v>
       </c>
       <c r="AD613" t="n">
-        <v>0.2019278083169894</v>
+        <v>0.03527077729249011</v>
       </c>
     </row>
     <row r="614">
@@ -78711,7 +78711,7 @@
         <v>0</v>
       </c>
       <c r="AD614" t="n">
-        <v>0.5265639246636802</v>
+        <v>0.9976666666666666</v>
       </c>
     </row>
     <row r="615">
@@ -78835,7 +78835,7 @@
         <v>0</v>
       </c>
       <c r="AD615" t="n">
-        <v>0</v>
+        <v>0.0003300418922397166</v>
       </c>
     </row>
     <row r="616">
@@ -78967,7 +78967,7 @@
         <v>0</v>
       </c>
       <c r="AD616" t="n">
-        <v>0.0169090909090909</v>
+        <v>0.2989458100559171</v>
       </c>
     </row>
     <row r="617">
@@ -79099,7 +79099,7 @@
         <v>0</v>
       </c>
       <c r="AD617" t="n">
-        <v>0.4029011673123463</v>
+        <v>0.8215555555555556</v>
       </c>
     </row>
     <row r="618">
@@ -79223,7 +79223,7 @@
         <v>0</v>
       </c>
       <c r="AD618" t="n">
-        <v>0</v>
+        <v>0.0001568731282927743</v>
       </c>
     </row>
     <row r="619">
@@ -79355,7 +79355,7 @@
         <v>0</v>
       </c>
       <c r="AD619" t="n">
-        <v>0.08183998490186797</v>
+        <v>0.04083605171026184</v>
       </c>
     </row>
     <row r="620">
@@ -79487,7 +79487,7 @@
         <v>0</v>
       </c>
       <c r="AD620" t="n">
-        <v>0.002380952380952381</v>
+        <v>0.2672808500163275</v>
       </c>
     </row>
     <row r="621">
@@ -79619,7 +79619,7 @@
         <v>0</v>
       </c>
       <c r="AD621" t="n">
-        <v>0.08916749259640189</v>
+        <v>0.04511514374067059</v>
       </c>
     </row>
     <row r="622">
@@ -79751,7 +79751,7 @@
         <v>0</v>
       </c>
       <c r="AD622" t="n">
-        <v>0.002</v>
+        <v>0.2660547064323284</v>
       </c>
     </row>
     <row r="623">
@@ -79871,7 +79871,7 @@
         <v>0</v>
       </c>
       <c r="AD623" t="n">
-        <v>0.00868778851120589</v>
+        <v>0.0002082523305249998</v>
       </c>
     </row>
     <row r="624">
@@ -80003,7 +80003,7 @@
         <v>0</v>
       </c>
       <c r="AD624" t="n">
-        <v>0.02300334721818332</v>
+        <v>0.0007545279105519896</v>
       </c>
     </row>
     <row r="625">
@@ -80135,7 +80135,7 @@
         <v>0</v>
       </c>
       <c r="AD625" t="n">
-        <v>0.002</v>
+        <v>0.2697648099080686</v>
       </c>
     </row>
     <row r="626">
@@ -80267,7 +80267,7 @@
         <v>0</v>
       </c>
       <c r="AD626" t="n">
-        <v>0.4029011673123463</v>
+        <v>0.8215555555555556</v>
       </c>
     </row>
     <row r="627">
@@ -80399,7 +80399,7 @@
         <v>0</v>
       </c>
       <c r="AD627" t="n">
-        <v>0.08183998490186797</v>
+        <v>0.04083605171026184</v>
       </c>
     </row>
     <row r="628">
@@ -80531,7 +80531,7 @@
         <v>0</v>
       </c>
       <c r="AD628" t="n">
-        <v>0.02300334721818332</v>
+        <v>0.0007545279105519896</v>
       </c>
     </row>
     <row r="629">
@@ -80663,7 +80663,7 @@
         <v>0</v>
       </c>
       <c r="AD629" t="n">
-        <v>0.09084042725362655</v>
+        <v>0.04004313867350367</v>
       </c>
     </row>
     <row r="630">
@@ -80791,7 +80791,7 @@
         <v>0</v>
       </c>
       <c r="AD630" t="n">
-        <v>0</v>
+        <v>0.0004277700232438783</v>
       </c>
     </row>
     <row r="631">
@@ -80923,7 +80923,7 @@
         <v>0</v>
       </c>
       <c r="AD631" t="n">
-        <v>0.002</v>
+        <v>0.2633909405621099</v>
       </c>
     </row>
     <row r="632">
@@ -81055,7 +81055,7 @@
         <v>0</v>
       </c>
       <c r="AD632" t="n">
-        <v>0.08183998490186797</v>
+        <v>0.04083605171026184</v>
       </c>
     </row>
     <row r="633">
@@ -81187,7 +81187,7 @@
         <v>0</v>
       </c>
       <c r="AD633" t="n">
-        <v>0.002</v>
+        <v>0.2684838108735558</v>
       </c>
     </row>
     <row r="634">
@@ -81315,7 +81315,7 @@
         <v>0</v>
       </c>
       <c r="AD634" t="n">
-        <v>0</v>
+        <v>0.0004277700232438783</v>
       </c>
     </row>
     <row r="635">
@@ -81447,7 +81447,7 @@
         <v>0</v>
       </c>
       <c r="AD635" t="n">
-        <v>0.002</v>
+        <v>0.2684838108735558</v>
       </c>
     </row>
     <row r="636">
@@ -81575,7 +81575,7 @@
         <v>0</v>
       </c>
       <c r="AD636" t="n">
-        <v>0</v>
+        <v>0.0005176576636933165</v>
       </c>
     </row>
     <row r="637">
@@ -81695,7 +81695,7 @@
         <v>0</v>
       </c>
       <c r="AD637" t="n">
-        <v>0.00868778851120589</v>
+        <v>0.0002862185498441663</v>
       </c>
     </row>
     <row r="638">
@@ -81815,7 +81815,7 @@
         <v>0</v>
       </c>
       <c r="AD638" t="n">
-        <v>0.00868778851120589</v>
+        <v>0.0002862185498441663</v>
       </c>
     </row>
     <row r="639">
@@ -81935,7 +81935,7 @@
         <v>0</v>
       </c>
       <c r="AD639" t="n">
-        <v>0.00868778851120589</v>
+        <v>0.005244853149511035</v>
       </c>
     </row>
     <row r="640">
@@ -82059,7 +82059,7 @@
         <v>0</v>
       </c>
       <c r="AD640" t="n">
-        <v>0</v>
+        <v>0.005772522309122795</v>
       </c>
     </row>
     <row r="641">
@@ -82191,7 +82191,7 @@
         <v>0</v>
       </c>
       <c r="AD641" t="n">
-        <v>0.02300334721818332</v>
+        <v>0.0008338479238118165</v>
       </c>
     </row>
     <row r="642">
@@ -82323,7 +82323,7 @@
         <v>0</v>
       </c>
       <c r="AD642" t="n">
-        <v>0.002</v>
+        <v>0.2685648099080686</v>
       </c>
     </row>
     <row r="643">
@@ -82455,7 +82455,7 @@
         <v>0</v>
       </c>
       <c r="AD643" t="n">
-        <v>0.002</v>
+        <v>0.2742504775402225</v>
       </c>
     </row>
     <row r="644">
@@ -82579,7 +82579,7 @@
         <v>0</v>
       </c>
       <c r="AD644" t="n">
-        <v>0</v>
+        <v>0.002277630291831723</v>
       </c>
     </row>
     <row r="645">
@@ -82711,7 +82711,7 @@
         <v>0</v>
       </c>
       <c r="AD645" t="n">
-        <v>0.1383890895527051</v>
+        <v>0.0354289249699496</v>
       </c>
     </row>
     <row r="646">
@@ -82843,7 +82843,7 @@
         <v>0</v>
       </c>
       <c r="AD646" t="n">
-        <v>0.002</v>
+        <v>0.6878481612872299</v>
       </c>
     </row>
     <row r="647">
@@ -82967,7 +82967,7 @@
         <v>0</v>
       </c>
       <c r="AD647" t="n">
-        <v>0</v>
+        <v>0.0001568731282927743</v>
       </c>
     </row>
     <row r="648">
@@ -83099,7 +83099,7 @@
         <v>0</v>
       </c>
       <c r="AD648" t="n">
-        <v>0.4029011673123463</v>
+        <v>0.8215555555555556</v>
       </c>
     </row>
     <row r="649">
@@ -83231,7 +83231,7 @@
         <v>0</v>
       </c>
       <c r="AD649" t="n">
-        <v>0.002380952380952381</v>
+        <v>0.2672808500163275</v>
       </c>
     </row>
     <row r="650">
@@ -83363,7 +83363,7 @@
         <v>0</v>
       </c>
       <c r="AD650" t="n">
-        <v>0.08916749259640189</v>
+        <v>0.04511514374067059</v>
       </c>
     </row>
     <row r="651">
@@ -83495,7 +83495,7 @@
         <v>0</v>
       </c>
       <c r="AD651" t="n">
-        <v>0.002</v>
+        <v>0.2660547064323284</v>
       </c>
     </row>
     <row r="652">
@@ -83615,7 +83615,7 @@
         <v>0</v>
       </c>
       <c r="AD652" t="n">
-        <v>0.00868778851120589</v>
+        <v>0.0002082523305249998</v>
       </c>
     </row>
     <row r="653">
@@ -83747,7 +83747,7 @@
         <v>0</v>
       </c>
       <c r="AD653" t="n">
-        <v>0.02300334721818332</v>
+        <v>0.0007545279105519896</v>
       </c>
     </row>
     <row r="654">
@@ -83879,7 +83879,7 @@
         <v>0</v>
       </c>
       <c r="AD654" t="n">
-        <v>0.002</v>
+        <v>0.2697648099080686</v>
       </c>
     </row>
     <row r="655">
@@ -84011,7 +84011,7 @@
         <v>0</v>
       </c>
       <c r="AD655" t="n">
-        <v>0.08183998490186797</v>
+        <v>0.04083605171026184</v>
       </c>
     </row>
     <row r="656">
@@ -84143,7 +84143,7 @@
         <v>0</v>
       </c>
       <c r="AD656" t="n">
-        <v>0.4029011673123463</v>
+        <v>0.8215555555555556</v>
       </c>
     </row>
     <row r="657">
@@ -84275,7 +84275,7 @@
         <v>0</v>
       </c>
       <c r="AD657" t="n">
-        <v>0.02300334721818332</v>
+        <v>0.0007545279105519896</v>
       </c>
     </row>
     <row r="658">
@@ -84407,7 +84407,7 @@
         <v>0</v>
       </c>
       <c r="AD658" t="n">
-        <v>0.09084042725362655</v>
+        <v>0.04004313867350367</v>
       </c>
     </row>
     <row r="659">
@@ -84535,7 +84535,7 @@
         <v>0</v>
       </c>
       <c r="AD659" t="n">
-        <v>0</v>
+        <v>0.0004277700232438783</v>
       </c>
     </row>
     <row r="660">
@@ -84667,7 +84667,7 @@
         <v>0</v>
       </c>
       <c r="AD660" t="n">
-        <v>0.002</v>
+        <v>0.2633909405621099</v>
       </c>
     </row>
     <row r="661">
@@ -84799,7 +84799,7 @@
         <v>0</v>
       </c>
       <c r="AD661" t="n">
-        <v>0.08183998490186797</v>
+        <v>0.04083605171026184</v>
       </c>
     </row>
     <row r="662">
@@ -84931,7 +84931,7 @@
         <v>0</v>
       </c>
       <c r="AD662" t="n">
-        <v>0.002</v>
+        <v>0.2684838108735558</v>
       </c>
     </row>
     <row r="663">
@@ -85059,7 +85059,7 @@
         <v>0</v>
       </c>
       <c r="AD663" t="n">
-        <v>0</v>
+        <v>0.0004277700232438783</v>
       </c>
     </row>
     <row r="664">
@@ -85191,7 +85191,7 @@
         <v>0</v>
       </c>
       <c r="AD664" t="n">
-        <v>0.002</v>
+        <v>0.2684838108735558</v>
       </c>
     </row>
     <row r="665">
@@ -85319,7 +85319,7 @@
         <v>0</v>
       </c>
       <c r="AD665" t="n">
-        <v>0</v>
+        <v>0.0004277700232438783</v>
       </c>
     </row>
     <row r="666">
@@ -85439,7 +85439,7 @@
         <v>0</v>
       </c>
       <c r="AD666" t="n">
-        <v>0.00868778851120589</v>
+        <v>0.0002862185498441663</v>
       </c>
     </row>
     <row r="667">
@@ -85559,7 +85559,7 @@
         <v>0</v>
       </c>
       <c r="AD667" t="n">
-        <v>0.00868778851120589</v>
+        <v>0.0002862185498441663</v>
       </c>
     </row>
     <row r="668">
@@ -85679,7 +85679,7 @@
         <v>0</v>
       </c>
       <c r="AD668" t="n">
-        <v>0.00868778851120589</v>
+        <v>0.0002862185498441663</v>
       </c>
     </row>
     <row r="669">
@@ -85803,7 +85803,7 @@
         <v>0</v>
       </c>
       <c r="AD669" t="n">
-        <v>0</v>
+        <v>0.0002088211809949599</v>
       </c>
     </row>
     <row r="670">
@@ -85935,7 +85935,7 @@
         <v>0</v>
       </c>
       <c r="AD670" t="n">
-        <v>0.02300334721818332</v>
+        <v>0.0008444155510014276</v>
       </c>
     </row>
     <row r="671">
@@ -86067,7 +86067,7 @@
         <v>0</v>
       </c>
       <c r="AD671" t="n">
-        <v>0.002</v>
+        <v>0.2697648099080686</v>
       </c>
     </row>
     <row r="672">
@@ -86199,7 +86199,7 @@
         <v>0</v>
       </c>
       <c r="AD672" t="n">
-        <v>0.002</v>
+        <v>0.2684838108735558</v>
       </c>
     </row>
     <row r="673">
@@ -86323,7 +86323,7 @@
         <v>0</v>
       </c>
       <c r="AD673" t="n">
-        <v>0</v>
+        <v>0.0001042465627609327</v>
       </c>
     </row>
     <row r="674">
@@ -86455,7 +86455,7 @@
         <v>0</v>
       </c>
       <c r="AD674" t="n">
-        <v>0.1383890895527051</v>
+        <v>0.03442395462857981</v>
       </c>
     </row>
     <row r="675">
@@ -86587,7 +86587,7 @@
         <v>0</v>
       </c>
       <c r="AD675" t="n">
-        <v>0.002</v>
+        <v>0.4044542420083562</v>
       </c>
     </row>
     <row r="676">
@@ -86719,10 +86719,10 @@
         <v>0</v>
       </c>
       <c r="AD676" t="n">
-        <v>0.06552930407425357</v>
+        <v>0.05017869741617248</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>